--- a/data/size/trial_size.xlsx
+++ b/data/size/trial_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566A347-E2C2-3349-82A1-B89B75AE2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1CF081-6F88-C54E-B1DE-7355BD4AF123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1560" windowWidth="12540" windowHeight="16940" xr2:uid="{DD34C9EB-E2ED-8349-AB5F-FDE14F54E3E1}"/>
+    <workbookView xWindow="12420" yWindow="760" windowWidth="11960" windowHeight="17120" xr2:uid="{DD34C9EB-E2ED-8349-AB5F-FDE14F54E3E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="47">
   <si>
     <t>date</t>
   </si>
@@ -111,6 +111,72 @@
   </si>
   <si>
     <t>length.mm</t>
+  </si>
+  <si>
+    <t>plate2</t>
+  </si>
+  <si>
+    <t>plate3</t>
+  </si>
+  <si>
+    <t>plate4</t>
+  </si>
+  <si>
+    <t>plate5</t>
+  </si>
+  <si>
+    <t>plate6</t>
+  </si>
+  <si>
+    <t>plate13</t>
+  </si>
+  <si>
+    <t>plate14</t>
+  </si>
+  <si>
+    <t>plate16</t>
+  </si>
+  <si>
+    <t>plate17</t>
+  </si>
+  <si>
+    <t>plate18</t>
+  </si>
+  <si>
+    <t>plate19</t>
+  </si>
+  <si>
+    <t>plate20</t>
+  </si>
+  <si>
+    <t>plate21</t>
+  </si>
+  <si>
+    <t>plate22</t>
+  </si>
+  <si>
+    <t>plate23</t>
+  </si>
+  <si>
+    <t>plate24</t>
+  </si>
+  <si>
+    <t>plate7</t>
+  </si>
+  <si>
+    <t>plate8</t>
+  </si>
+  <si>
+    <t>plate9</t>
+  </si>
+  <si>
+    <t>plate10</t>
+  </si>
+  <si>
+    <t>plate11</t>
+  </si>
+  <si>
+    <t>plate12</t>
   </si>
 </sst>
 </file>
@@ -482,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAB0EB0-0DA4-F441-80F7-FBB69504C7E9}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,6 +580,9 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>18.260000000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -525,6 +594,9 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>16.39</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -536,6 +608,9 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4">
+        <v>14.72</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -547,6 +622,9 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
+      <c r="D5">
+        <v>11.33</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -558,6 +636,9 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6">
+        <v>13.52</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -569,6 +650,9 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
+      <c r="D7">
+        <v>18.899999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -580,6 +664,9 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="D8">
+        <v>15.55</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -591,6 +678,9 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
+      <c r="D9">
+        <v>14.63</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -602,6 +692,9 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
+      <c r="D10">
+        <v>15.71</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -613,6 +706,9 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
+      <c r="D11">
+        <v>13.25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -624,6 +720,9 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
+      <c r="D12">
+        <v>10.67</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -635,6 +734,9 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
+      <c r="D13">
+        <v>15.65</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -646,6 +748,9 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
+      <c r="D14">
+        <v>13.22</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -657,6 +762,9 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
+      <c r="D15">
+        <v>16.52</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -668,8 +776,11 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20250701</v>
       </c>
@@ -679,8 +790,11 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20250701</v>
       </c>
@@ -690,8 +804,11 @@
       <c r="C18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20250701</v>
       </c>
@@ -701,8 +818,11 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20250701</v>
       </c>
@@ -712,8 +832,11 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20250701</v>
       </c>
@@ -722,6 +845,6169 @@
       </c>
       <c r="C21" t="s">
         <v>23</v>
+      </c>
+      <c r="D21">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20250701</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20250701</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20250701</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20250701</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>17.329999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20250701</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20250701</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20250701</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>16.440000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20250701</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20250701</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20250701</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20250701</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20250701</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20250701</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20250701</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>16.059999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20250701</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20250701</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20250701</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20250701</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20250701</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20250701</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20250701</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20250701</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20250701</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20250701</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20250701</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20250701</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20250701</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20250701</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20250701</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20250701</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20250701</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20250701</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20250701</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20250701</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20250701</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20250701</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20250701</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20250701</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20250701</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20250701</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>20250701</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>20250701</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>20250701</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>20250701</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>20250701</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>16.420000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>20250701</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>20250701</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20250701</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20250701</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20250701</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>20250701</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>20250701</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20250701</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>20250701</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>20250701</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20250701</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20250701</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20250701</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20250701</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20250701</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20250701</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>20250701</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20250701</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>20250701</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>20250701</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20250701</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20250701</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20250701</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20250701</v>
+      </c>
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20250701</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>20250701</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>20250701</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93">
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>20250701</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>20250701</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>20250701</v>
+      </c>
+      <c r="B96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20250701</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20250701</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20250701</v>
+      </c>
+      <c r="B99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99">
+        <v>16.57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20250701</v>
+      </c>
+      <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20250701</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20250701</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>20250701</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>20250701</v>
+      </c>
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>20250701</v>
+      </c>
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20250701</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>20250701</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>20250701</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>20250701</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>20250701</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>18.350000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>20250701</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>20250701</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>20250701</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>20250701</v>
+      </c>
+      <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20250701</v>
+      </c>
+      <c r="B115" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20250701</v>
+      </c>
+      <c r="B116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>20250701</v>
+      </c>
+      <c r="B117" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>20250701</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>20250701</v>
+      </c>
+      <c r="B119" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20250701</v>
+      </c>
+      <c r="B120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20250701</v>
+      </c>
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20250701</v>
+      </c>
+      <c r="B122" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>20250701</v>
+      </c>
+      <c r="B123" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>20250701</v>
+      </c>
+      <c r="B124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>20250701</v>
+      </c>
+      <c r="B125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>20250701</v>
+      </c>
+      <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>20250701</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>20250701</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>20250701</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>20250701</v>
+      </c>
+      <c r="B130" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>20250701</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>20250701</v>
+      </c>
+      <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>20250701</v>
+      </c>
+      <c r="B133" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20250701</v>
+      </c>
+      <c r="B134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>20250701</v>
+      </c>
+      <c r="B135" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>20250701</v>
+      </c>
+      <c r="B136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>20250701</v>
+      </c>
+      <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>20250701</v>
+      </c>
+      <c r="B138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138">
+        <v>15.14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>20250701</v>
+      </c>
+      <c r="B139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>20250701</v>
+      </c>
+      <c r="B140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>20250701</v>
+      </c>
+      <c r="B141" t="s">
+        <v>32</v>
+      </c>
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>20250701</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>20250701</v>
+      </c>
+      <c r="B143" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>20250701</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>20250701</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>20250701</v>
+      </c>
+      <c r="B146" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>20250701</v>
+      </c>
+      <c r="B147" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>20250701</v>
+      </c>
+      <c r="B148" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>20250701</v>
+      </c>
+      <c r="B149" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>20250701</v>
+      </c>
+      <c r="B150" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>20250701</v>
+      </c>
+      <c r="B151" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>20250701</v>
+      </c>
+      <c r="B152" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>20250701</v>
+      </c>
+      <c r="B153" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>20250701</v>
+      </c>
+      <c r="B154" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>20250701</v>
+      </c>
+      <c r="B155" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155">
+        <v>15.96</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>20250701</v>
+      </c>
+      <c r="B156" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>20250701</v>
+      </c>
+      <c r="B157" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>20250701</v>
+      </c>
+      <c r="B158" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158">
+        <v>11.47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>20250701</v>
+      </c>
+      <c r="B159" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>20250701</v>
+      </c>
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>20250701</v>
+      </c>
+      <c r="B161" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161">
+        <v>16.82</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>20250701</v>
+      </c>
+      <c r="B162" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>20250701</v>
+      </c>
+      <c r="B163" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>20250701</v>
+      </c>
+      <c r="B164" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>20250701</v>
+      </c>
+      <c r="B165" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>20250701</v>
+      </c>
+      <c r="B166" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>20250701</v>
+      </c>
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>20250701</v>
+      </c>
+      <c r="B168" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>20250701</v>
+      </c>
+      <c r="B169" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>20250701</v>
+      </c>
+      <c r="B170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>20250701</v>
+      </c>
+      <c r="B171" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>20250701</v>
+      </c>
+      <c r="B172" t="s">
+        <v>34</v>
+      </c>
+      <c r="C172" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>20250701</v>
+      </c>
+      <c r="B173" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>20250701</v>
+      </c>
+      <c r="B174" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>20250701</v>
+      </c>
+      <c r="B175" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>20250701</v>
+      </c>
+      <c r="B176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>20250701</v>
+      </c>
+      <c r="B177" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>20250701</v>
+      </c>
+      <c r="B178" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>20250701</v>
+      </c>
+      <c r="B179" t="s">
+        <v>34</v>
+      </c>
+      <c r="C179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>20250701</v>
+      </c>
+      <c r="B180" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>20250701</v>
+      </c>
+      <c r="B181" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>20250701</v>
+      </c>
+      <c r="B182" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>20250701</v>
+      </c>
+      <c r="B183" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>20250701</v>
+      </c>
+      <c r="B184" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>20250701</v>
+      </c>
+      <c r="B185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185">
+        <v>17.239999999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>20250701</v>
+      </c>
+      <c r="B186" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>20250701</v>
+      </c>
+      <c r="B187" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>20250701</v>
+      </c>
+      <c r="B188" t="s">
+        <v>35</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>20250701</v>
+      </c>
+      <c r="B189" t="s">
+        <v>35</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189">
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>20250701</v>
+      </c>
+      <c r="B190" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>20250701</v>
+      </c>
+      <c r="B191" t="s">
+        <v>35</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>20250701</v>
+      </c>
+      <c r="B192" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>20250701</v>
+      </c>
+      <c r="B193" t="s">
+        <v>35</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>20250701</v>
+      </c>
+      <c r="B194" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>20250701</v>
+      </c>
+      <c r="B195" t="s">
+        <v>35</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>20250701</v>
+      </c>
+      <c r="B196" t="s">
+        <v>35</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>20250701</v>
+      </c>
+      <c r="B197" t="s">
+        <v>35</v>
+      </c>
+      <c r="C197" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>20250701</v>
+      </c>
+      <c r="B198" t="s">
+        <v>35</v>
+      </c>
+      <c r="C198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>20250701</v>
+      </c>
+      <c r="B199" t="s">
+        <v>35</v>
+      </c>
+      <c r="C199" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>20250701</v>
+      </c>
+      <c r="B200" t="s">
+        <v>35</v>
+      </c>
+      <c r="C200" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>20250701</v>
+      </c>
+      <c r="B201" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201">
+        <v>16.079999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>20250701</v>
+      </c>
+      <c r="B202" t="s">
+        <v>36</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>20250701</v>
+      </c>
+      <c r="B203" t="s">
+        <v>36</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203">
+        <v>11.47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>20250701</v>
+      </c>
+      <c r="B204" t="s">
+        <v>36</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>20250701</v>
+      </c>
+      <c r="B205" t="s">
+        <v>36</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>20250701</v>
+      </c>
+      <c r="B206" t="s">
+        <v>36</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>20250701</v>
+      </c>
+      <c r="B207" t="s">
+        <v>36</v>
+      </c>
+      <c r="C207" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>20250701</v>
+      </c>
+      <c r="B208" t="s">
+        <v>36</v>
+      </c>
+      <c r="C208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>20250701</v>
+      </c>
+      <c r="B209" t="s">
+        <v>36</v>
+      </c>
+      <c r="C209" t="s">
+        <v>11</v>
+      </c>
+      <c r="D209">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>20250701</v>
+      </c>
+      <c r="B210" t="s">
+        <v>36</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>20250701</v>
+      </c>
+      <c r="B211" t="s">
+        <v>36</v>
+      </c>
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>20250701</v>
+      </c>
+      <c r="B212" t="s">
+        <v>36</v>
+      </c>
+      <c r="C212" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>20250701</v>
+      </c>
+      <c r="B213" t="s">
+        <v>36</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>20250701</v>
+      </c>
+      <c r="B214" t="s">
+        <v>36</v>
+      </c>
+      <c r="C214" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>20250701</v>
+      </c>
+      <c r="B215" t="s">
+        <v>36</v>
+      </c>
+      <c r="C215" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>20250701</v>
+      </c>
+      <c r="B216" t="s">
+        <v>36</v>
+      </c>
+      <c r="C216" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>20250701</v>
+      </c>
+      <c r="B217" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" t="s">
+        <v>19</v>
+      </c>
+      <c r="D217">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>20250701</v>
+      </c>
+      <c r="B218" t="s">
+        <v>36</v>
+      </c>
+      <c r="C218" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>20250701</v>
+      </c>
+      <c r="B219" t="s">
+        <v>36</v>
+      </c>
+      <c r="C219" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>20250701</v>
+      </c>
+      <c r="B220" t="s">
+        <v>36</v>
+      </c>
+      <c r="C220" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>20250701</v>
+      </c>
+      <c r="B221" t="s">
+        <v>36</v>
+      </c>
+      <c r="C221" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>20250701</v>
+      </c>
+      <c r="B222" t="s">
+        <v>37</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>20250701</v>
+      </c>
+      <c r="B223" t="s">
+        <v>37</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>20250701</v>
+      </c>
+      <c r="B224" t="s">
+        <v>37</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>20250701</v>
+      </c>
+      <c r="B225" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>20250701</v>
+      </c>
+      <c r="B226" t="s">
+        <v>37</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>20250701</v>
+      </c>
+      <c r="B227" t="s">
+        <v>37</v>
+      </c>
+      <c r="C227" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>20250701</v>
+      </c>
+      <c r="B228" t="s">
+        <v>37</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>20250701</v>
+      </c>
+      <c r="B229" t="s">
+        <v>37</v>
+      </c>
+      <c r="C229" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>20250701</v>
+      </c>
+      <c r="B230" t="s">
+        <v>37</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>20250701</v>
+      </c>
+      <c r="B231" t="s">
+        <v>37</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>20250701</v>
+      </c>
+      <c r="B232" t="s">
+        <v>37</v>
+      </c>
+      <c r="C232" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>20250701</v>
+      </c>
+      <c r="B233" t="s">
+        <v>37</v>
+      </c>
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>20250701</v>
+      </c>
+      <c r="B234" t="s">
+        <v>37</v>
+      </c>
+      <c r="C234" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234">
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>20250701</v>
+      </c>
+      <c r="B235" t="s">
+        <v>37</v>
+      </c>
+      <c r="C235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>20250701</v>
+      </c>
+      <c r="B236" t="s">
+        <v>37</v>
+      </c>
+      <c r="C236" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>20250701</v>
+      </c>
+      <c r="B237" t="s">
+        <v>37</v>
+      </c>
+      <c r="C237" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237">
+        <v>15.61</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>20250701</v>
+      </c>
+      <c r="B238" t="s">
+        <v>37</v>
+      </c>
+      <c r="C238" t="s">
+        <v>20</v>
+      </c>
+      <c r="D238">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>20250701</v>
+      </c>
+      <c r="B239" t="s">
+        <v>37</v>
+      </c>
+      <c r="C239" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>20250701</v>
+      </c>
+      <c r="B240" t="s">
+        <v>37</v>
+      </c>
+      <c r="C240" t="s">
+        <v>22</v>
+      </c>
+      <c r="D240">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>20250701</v>
+      </c>
+      <c r="B241" t="s">
+        <v>37</v>
+      </c>
+      <c r="C241" t="s">
+        <v>23</v>
+      </c>
+      <c r="D241">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>20250701</v>
+      </c>
+      <c r="B242" t="s">
+        <v>38</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+      <c r="D242">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>20250701</v>
+      </c>
+      <c r="B243" t="s">
+        <v>38</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>20250701</v>
+      </c>
+      <c r="B244" t="s">
+        <v>38</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>20250701</v>
+      </c>
+      <c r="B245" t="s">
+        <v>38</v>
+      </c>
+      <c r="C245" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>20250701</v>
+      </c>
+      <c r="B246" t="s">
+        <v>38</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>20250701</v>
+      </c>
+      <c r="B247" t="s">
+        <v>38</v>
+      </c>
+      <c r="C247" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247">
+        <v>15.41</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>20250701</v>
+      </c>
+      <c r="B248" t="s">
+        <v>38</v>
+      </c>
+      <c r="C248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>20250701</v>
+      </c>
+      <c r="B249" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>20250701</v>
+      </c>
+      <c r="B250" t="s">
+        <v>38</v>
+      </c>
+      <c r="C250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>20250701</v>
+      </c>
+      <c r="B251" t="s">
+        <v>38</v>
+      </c>
+      <c r="C251" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>20250701</v>
+      </c>
+      <c r="B252" t="s">
+        <v>38</v>
+      </c>
+      <c r="C252" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252">
+        <v>14.68</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>20250701</v>
+      </c>
+      <c r="B253" t="s">
+        <v>38</v>
+      </c>
+      <c r="C253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>20250701</v>
+      </c>
+      <c r="B254" t="s">
+        <v>38</v>
+      </c>
+      <c r="C254" t="s">
+        <v>16</v>
+      </c>
+      <c r="D254">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>20250701</v>
+      </c>
+      <c r="B255" t="s">
+        <v>38</v>
+      </c>
+      <c r="C255" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>20250701</v>
+      </c>
+      <c r="B256" t="s">
+        <v>38</v>
+      </c>
+      <c r="C256" t="s">
+        <v>18</v>
+      </c>
+      <c r="D256">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>20250701</v>
+      </c>
+      <c r="B257" t="s">
+        <v>38</v>
+      </c>
+      <c r="C257" t="s">
+        <v>19</v>
+      </c>
+      <c r="D257">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>20250701</v>
+      </c>
+      <c r="B258" t="s">
+        <v>38</v>
+      </c>
+      <c r="C258" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>20250701</v>
+      </c>
+      <c r="B259" t="s">
+        <v>38</v>
+      </c>
+      <c r="C259" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>20250701</v>
+      </c>
+      <c r="B260" t="s">
+        <v>38</v>
+      </c>
+      <c r="C260" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>20250701</v>
+      </c>
+      <c r="B261" t="s">
+        <v>38</v>
+      </c>
+      <c r="C261" t="s">
+        <v>23</v>
+      </c>
+      <c r="D261">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>20250701</v>
+      </c>
+      <c r="B262" t="s">
+        <v>39</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+      <c r="D262">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>20250701</v>
+      </c>
+      <c r="B263" t="s">
+        <v>39</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+      <c r="D263">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>20250701</v>
+      </c>
+      <c r="B264" t="s">
+        <v>39</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>20250701</v>
+      </c>
+      <c r="B265" t="s">
+        <v>39</v>
+      </c>
+      <c r="C265" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>20250701</v>
+      </c>
+      <c r="B266" t="s">
+        <v>39</v>
+      </c>
+      <c r="C266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266">
+        <v>17.04</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>20250701</v>
+      </c>
+      <c r="B267" t="s">
+        <v>39</v>
+      </c>
+      <c r="C267" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>20250701</v>
+      </c>
+      <c r="B268" t="s">
+        <v>39</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>20250701</v>
+      </c>
+      <c r="B269" t="s">
+        <v>39</v>
+      </c>
+      <c r="C269" t="s">
+        <v>11</v>
+      </c>
+      <c r="D269">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>20250701</v>
+      </c>
+      <c r="B270" t="s">
+        <v>39</v>
+      </c>
+      <c r="C270" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>20250701</v>
+      </c>
+      <c r="B271" t="s">
+        <v>39</v>
+      </c>
+      <c r="C271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>20250701</v>
+      </c>
+      <c r="B272" t="s">
+        <v>39</v>
+      </c>
+      <c r="C272" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272">
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>20250701</v>
+      </c>
+      <c r="B273" t="s">
+        <v>39</v>
+      </c>
+      <c r="C273" t="s">
+        <v>15</v>
+      </c>
+      <c r="D273">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>20250701</v>
+      </c>
+      <c r="B274" t="s">
+        <v>39</v>
+      </c>
+      <c r="C274" t="s">
+        <v>16</v>
+      </c>
+      <c r="D274">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>20250701</v>
+      </c>
+      <c r="B275" t="s">
+        <v>39</v>
+      </c>
+      <c r="C275" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>20250701</v>
+      </c>
+      <c r="B276" t="s">
+        <v>39</v>
+      </c>
+      <c r="C276" t="s">
+        <v>18</v>
+      </c>
+      <c r="D276">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>20250701</v>
+      </c>
+      <c r="B277" t="s">
+        <v>39</v>
+      </c>
+      <c r="C277" t="s">
+        <v>19</v>
+      </c>
+      <c r="D277">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>20250701</v>
+      </c>
+      <c r="B278" t="s">
+        <v>39</v>
+      </c>
+      <c r="C278" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>20250701</v>
+      </c>
+      <c r="B279" t="s">
+        <v>39</v>
+      </c>
+      <c r="C279" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>20250701</v>
+      </c>
+      <c r="B280" t="s">
+        <v>39</v>
+      </c>
+      <c r="C280" t="s">
+        <v>22</v>
+      </c>
+      <c r="D280">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>20250701</v>
+      </c>
+      <c r="B281" t="s">
+        <v>39</v>
+      </c>
+      <c r="C281" t="s">
+        <v>23</v>
+      </c>
+      <c r="D281">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>20250701</v>
+      </c>
+      <c r="B282" t="s">
+        <v>40</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+      <c r="D282">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>20250701</v>
+      </c>
+      <c r="B283" t="s">
+        <v>40</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>20250701</v>
+      </c>
+      <c r="B284" t="s">
+        <v>40</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>20250701</v>
+      </c>
+      <c r="B285" t="s">
+        <v>40</v>
+      </c>
+      <c r="C285" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>20250701</v>
+      </c>
+      <c r="B286" t="s">
+        <v>40</v>
+      </c>
+      <c r="C286" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>20250701</v>
+      </c>
+      <c r="B287" t="s">
+        <v>40</v>
+      </c>
+      <c r="C287" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>20250701</v>
+      </c>
+      <c r="B288" t="s">
+        <v>40</v>
+      </c>
+      <c r="C288" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>20250701</v>
+      </c>
+      <c r="B289" t="s">
+        <v>40</v>
+      </c>
+      <c r="C289" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>20250701</v>
+      </c>
+      <c r="B290" t="s">
+        <v>40</v>
+      </c>
+      <c r="C290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>20250701</v>
+      </c>
+      <c r="B291" t="s">
+        <v>40</v>
+      </c>
+      <c r="C291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291">
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>20250701</v>
+      </c>
+      <c r="B292" t="s">
+        <v>40</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>20250701</v>
+      </c>
+      <c r="B293" t="s">
+        <v>40</v>
+      </c>
+      <c r="C293" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293">
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>20250701</v>
+      </c>
+      <c r="B294" t="s">
+        <v>40</v>
+      </c>
+      <c r="C294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D294">
+        <v>19.010000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>20250701</v>
+      </c>
+      <c r="B295" t="s">
+        <v>40</v>
+      </c>
+      <c r="C295" t="s">
+        <v>17</v>
+      </c>
+      <c r="D295">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>20250701</v>
+      </c>
+      <c r="B296" t="s">
+        <v>40</v>
+      </c>
+      <c r="C296" t="s">
+        <v>18</v>
+      </c>
+      <c r="D296">
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>20250701</v>
+      </c>
+      <c r="B297" t="s">
+        <v>40</v>
+      </c>
+      <c r="C297" t="s">
+        <v>19</v>
+      </c>
+      <c r="D297">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>20250701</v>
+      </c>
+      <c r="B298" t="s">
+        <v>40</v>
+      </c>
+      <c r="C298" t="s">
+        <v>20</v>
+      </c>
+      <c r="D298">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>20250701</v>
+      </c>
+      <c r="B299" t="s">
+        <v>40</v>
+      </c>
+      <c r="C299" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299">
+        <v>18.350000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>20250701</v>
+      </c>
+      <c r="B300" t="s">
+        <v>40</v>
+      </c>
+      <c r="C300" t="s">
+        <v>22</v>
+      </c>
+      <c r="D300">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>20250701</v>
+      </c>
+      <c r="B301" t="s">
+        <v>40</v>
+      </c>
+      <c r="C301" t="s">
+        <v>23</v>
+      </c>
+      <c r="D301">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>20250701</v>
+      </c>
+      <c r="B302" t="s">
+        <v>28</v>
+      </c>
+      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+      <c r="D302">
+        <v>13.51</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>20250701</v>
+      </c>
+      <c r="B303" t="s">
+        <v>28</v>
+      </c>
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+      <c r="D303">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>20250701</v>
+      </c>
+      <c r="B304" t="s">
+        <v>28</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304">
+        <v>13.36</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>20250701</v>
+      </c>
+      <c r="B305" t="s">
+        <v>28</v>
+      </c>
+      <c r="C305" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>20250701</v>
+      </c>
+      <c r="B306" t="s">
+        <v>28</v>
+      </c>
+      <c r="C306" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>20250701</v>
+      </c>
+      <c r="B307" t="s">
+        <v>28</v>
+      </c>
+      <c r="C307" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>20250701</v>
+      </c>
+      <c r="B308" t="s">
+        <v>28</v>
+      </c>
+      <c r="C308" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>20250701</v>
+      </c>
+      <c r="B309" t="s">
+        <v>28</v>
+      </c>
+      <c r="C309" t="s">
+        <v>11</v>
+      </c>
+      <c r="D309">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>20250701</v>
+      </c>
+      <c r="B310" t="s">
+        <v>28</v>
+      </c>
+      <c r="C310" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>20250701</v>
+      </c>
+      <c r="B311" t="s">
+        <v>28</v>
+      </c>
+      <c r="C311" t="s">
+        <v>13</v>
+      </c>
+      <c r="D311">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>20250701</v>
+      </c>
+      <c r="B312" t="s">
+        <v>28</v>
+      </c>
+      <c r="C312" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312">
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>20250701</v>
+      </c>
+      <c r="B313" t="s">
+        <v>28</v>
+      </c>
+      <c r="C313" t="s">
+        <v>15</v>
+      </c>
+      <c r="D313">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>20250701</v>
+      </c>
+      <c r="B314" t="s">
+        <v>28</v>
+      </c>
+      <c r="C314" t="s">
+        <v>16</v>
+      </c>
+      <c r="D314">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>20250701</v>
+      </c>
+      <c r="B315" t="s">
+        <v>28</v>
+      </c>
+      <c r="C315" t="s">
+        <v>17</v>
+      </c>
+      <c r="D315">
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>20250701</v>
+      </c>
+      <c r="B316" t="s">
+        <v>28</v>
+      </c>
+      <c r="C316" t="s">
+        <v>18</v>
+      </c>
+      <c r="D316">
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>20250701</v>
+      </c>
+      <c r="B317" t="s">
+        <v>28</v>
+      </c>
+      <c r="C317" t="s">
+        <v>19</v>
+      </c>
+      <c r="D317">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>20250701</v>
+      </c>
+      <c r="B318" t="s">
+        <v>28</v>
+      </c>
+      <c r="C318" t="s">
+        <v>20</v>
+      </c>
+      <c r="D318">
+        <v>15.41</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>20250701</v>
+      </c>
+      <c r="B319" t="s">
+        <v>28</v>
+      </c>
+      <c r="C319" t="s">
+        <v>21</v>
+      </c>
+      <c r="D319">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>20250701</v>
+      </c>
+      <c r="B320" t="s">
+        <v>28</v>
+      </c>
+      <c r="C320" t="s">
+        <v>22</v>
+      </c>
+      <c r="D320">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>20250701</v>
+      </c>
+      <c r="B321" t="s">
+        <v>28</v>
+      </c>
+      <c r="C321" t="s">
+        <v>23</v>
+      </c>
+      <c r="D321">
+        <v>15.61</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>20250701</v>
+      </c>
+      <c r="B322" t="s">
+        <v>29</v>
+      </c>
+      <c r="C322" t="s">
+        <v>4</v>
+      </c>
+      <c r="D322">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>20250701</v>
+      </c>
+      <c r="B323" t="s">
+        <v>29</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+      <c r="D323">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>20250701</v>
+      </c>
+      <c r="B324" t="s">
+        <v>29</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>20250701</v>
+      </c>
+      <c r="B325" t="s">
+        <v>29</v>
+      </c>
+      <c r="C325" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>20250701</v>
+      </c>
+      <c r="B326" t="s">
+        <v>29</v>
+      </c>
+      <c r="C326" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>20250701</v>
+      </c>
+      <c r="B327" t="s">
+        <v>29</v>
+      </c>
+      <c r="C327" t="s">
+        <v>9</v>
+      </c>
+      <c r="D327">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>20250701</v>
+      </c>
+      <c r="B328" t="s">
+        <v>29</v>
+      </c>
+      <c r="C328" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>20250701</v>
+      </c>
+      <c r="B329" t="s">
+        <v>29</v>
+      </c>
+      <c r="C329" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>20250701</v>
+      </c>
+      <c r="B330" t="s">
+        <v>29</v>
+      </c>
+      <c r="C330" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>20250701</v>
+      </c>
+      <c r="B331" t="s">
+        <v>29</v>
+      </c>
+      <c r="C331" t="s">
+        <v>13</v>
+      </c>
+      <c r="D331">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>20250701</v>
+      </c>
+      <c r="B332" t="s">
+        <v>29</v>
+      </c>
+      <c r="C332" t="s">
+        <v>14</v>
+      </c>
+      <c r="D332">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>20250701</v>
+      </c>
+      <c r="B333" t="s">
+        <v>29</v>
+      </c>
+      <c r="C333" t="s">
+        <v>15</v>
+      </c>
+      <c r="D333">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>20250701</v>
+      </c>
+      <c r="B334" t="s">
+        <v>29</v>
+      </c>
+      <c r="C334" t="s">
+        <v>16</v>
+      </c>
+      <c r="D334">
+        <v>16.57</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>20250701</v>
+      </c>
+      <c r="B335" t="s">
+        <v>29</v>
+      </c>
+      <c r="C335" t="s">
+        <v>17</v>
+      </c>
+      <c r="D335">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>20250701</v>
+      </c>
+      <c r="B336" t="s">
+        <v>29</v>
+      </c>
+      <c r="C336" t="s">
+        <v>18</v>
+      </c>
+      <c r="D336">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>20250701</v>
+      </c>
+      <c r="B337" t="s">
+        <v>29</v>
+      </c>
+      <c r="C337" t="s">
+        <v>19</v>
+      </c>
+      <c r="D337">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>20250701</v>
+      </c>
+      <c r="B338" t="s">
+        <v>29</v>
+      </c>
+      <c r="C338" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338">
+        <v>16.170000000000002</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>20250701</v>
+      </c>
+      <c r="B339" t="s">
+        <v>29</v>
+      </c>
+      <c r="C339" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>20250701</v>
+      </c>
+      <c r="B340" t="s">
+        <v>29</v>
+      </c>
+      <c r="C340" t="s">
+        <v>22</v>
+      </c>
+      <c r="D340">
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>20250701</v>
+      </c>
+      <c r="B341" t="s">
+        <v>29</v>
+      </c>
+      <c r="C341" t="s">
+        <v>23</v>
+      </c>
+      <c r="D341">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>20250701</v>
+      </c>
+      <c r="B342" t="s">
+        <v>41</v>
+      </c>
+      <c r="C342" t="s">
+        <v>4</v>
+      </c>
+      <c r="D342">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>20250701</v>
+      </c>
+      <c r="B343" t="s">
+        <v>41</v>
+      </c>
+      <c r="C343" t="s">
+        <v>5</v>
+      </c>
+      <c r="D343">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>20250701</v>
+      </c>
+      <c r="B344" t="s">
+        <v>41</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>20250701</v>
+      </c>
+      <c r="B345" t="s">
+        <v>41</v>
+      </c>
+      <c r="C345" t="s">
+        <v>7</v>
+      </c>
+      <c r="D345">
+        <v>14.87</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>20250701</v>
+      </c>
+      <c r="B346" t="s">
+        <v>41</v>
+      </c>
+      <c r="C346" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>20250701</v>
+      </c>
+      <c r="B347" t="s">
+        <v>41</v>
+      </c>
+      <c r="C347" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>20250701</v>
+      </c>
+      <c r="B348" t="s">
+        <v>41</v>
+      </c>
+      <c r="C348" t="s">
+        <v>10</v>
+      </c>
+      <c r="D348">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>20250701</v>
+      </c>
+      <c r="B349" t="s">
+        <v>41</v>
+      </c>
+      <c r="C349" t="s">
+        <v>11</v>
+      </c>
+      <c r="D349">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>20250701</v>
+      </c>
+      <c r="B350" t="s">
+        <v>41</v>
+      </c>
+      <c r="C350" t="s">
+        <v>12</v>
+      </c>
+      <c r="D350">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>20250701</v>
+      </c>
+      <c r="B351" t="s">
+        <v>41</v>
+      </c>
+      <c r="C351" t="s">
+        <v>13</v>
+      </c>
+      <c r="D351">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>20250701</v>
+      </c>
+      <c r="B352" t="s">
+        <v>41</v>
+      </c>
+      <c r="C352" t="s">
+        <v>14</v>
+      </c>
+      <c r="D352">
+        <v>15.61</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>20250701</v>
+      </c>
+      <c r="B353" t="s">
+        <v>41</v>
+      </c>
+      <c r="C353" t="s">
+        <v>15</v>
+      </c>
+      <c r="D353">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>20250701</v>
+      </c>
+      <c r="B354" t="s">
+        <v>41</v>
+      </c>
+      <c r="C354" t="s">
+        <v>16</v>
+      </c>
+      <c r="D354">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>20250701</v>
+      </c>
+      <c r="B355" t="s">
+        <v>41</v>
+      </c>
+      <c r="C355" t="s">
+        <v>17</v>
+      </c>
+      <c r="D355">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>20250701</v>
+      </c>
+      <c r="B356" t="s">
+        <v>41</v>
+      </c>
+      <c r="C356" t="s">
+        <v>18</v>
+      </c>
+      <c r="D356">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>20250701</v>
+      </c>
+      <c r="B357" t="s">
+        <v>41</v>
+      </c>
+      <c r="C357" t="s">
+        <v>19</v>
+      </c>
+      <c r="D357">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>20250701</v>
+      </c>
+      <c r="B358" t="s">
+        <v>41</v>
+      </c>
+      <c r="C358" t="s">
+        <v>20</v>
+      </c>
+      <c r="D358">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>20250701</v>
+      </c>
+      <c r="B359" t="s">
+        <v>41</v>
+      </c>
+      <c r="C359" t="s">
+        <v>21</v>
+      </c>
+      <c r="D359">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>20250701</v>
+      </c>
+      <c r="B360" t="s">
+        <v>41</v>
+      </c>
+      <c r="C360" t="s">
+        <v>22</v>
+      </c>
+      <c r="D360">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>20250701</v>
+      </c>
+      <c r="B361" t="s">
+        <v>41</v>
+      </c>
+      <c r="C361" t="s">
+        <v>23</v>
+      </c>
+      <c r="D361">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>20250701</v>
+      </c>
+      <c r="B362" t="s">
+        <v>42</v>
+      </c>
+      <c r="C362" t="s">
+        <v>4</v>
+      </c>
+      <c r="D362">
+        <v>18.34</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>20250701</v>
+      </c>
+      <c r="B363" t="s">
+        <v>42</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>20250701</v>
+      </c>
+      <c r="B364" t="s">
+        <v>42</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>20250701</v>
+      </c>
+      <c r="B365" t="s">
+        <v>42</v>
+      </c>
+      <c r="C365" t="s">
+        <v>7</v>
+      </c>
+      <c r="D365">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>20250701</v>
+      </c>
+      <c r="B366" t="s">
+        <v>42</v>
+      </c>
+      <c r="C366" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>20250701</v>
+      </c>
+      <c r="B367" t="s">
+        <v>42</v>
+      </c>
+      <c r="C367" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>20250701</v>
+      </c>
+      <c r="B368" t="s">
+        <v>42</v>
+      </c>
+      <c r="C368" t="s">
+        <v>10</v>
+      </c>
+      <c r="D368">
+        <v>18.23</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>20250701</v>
+      </c>
+      <c r="B369" t="s">
+        <v>42</v>
+      </c>
+      <c r="C369" t="s">
+        <v>11</v>
+      </c>
+      <c r="D369">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>20250701</v>
+      </c>
+      <c r="B370" t="s">
+        <v>42</v>
+      </c>
+      <c r="C370" t="s">
+        <v>12</v>
+      </c>
+      <c r="D370">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>20250701</v>
+      </c>
+      <c r="B371" t="s">
+        <v>42</v>
+      </c>
+      <c r="C371" t="s">
+        <v>13</v>
+      </c>
+      <c r="D371">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>20250701</v>
+      </c>
+      <c r="B372" t="s">
+        <v>42</v>
+      </c>
+      <c r="C372" t="s">
+        <v>14</v>
+      </c>
+      <c r="D372">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>20250701</v>
+      </c>
+      <c r="B373" t="s">
+        <v>42</v>
+      </c>
+      <c r="C373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D373">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>20250701</v>
+      </c>
+      <c r="B374" t="s">
+        <v>42</v>
+      </c>
+      <c r="C374" t="s">
+        <v>16</v>
+      </c>
+      <c r="D374">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>20250701</v>
+      </c>
+      <c r="B375" t="s">
+        <v>42</v>
+      </c>
+      <c r="C375" t="s">
+        <v>17</v>
+      </c>
+      <c r="D375">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>20250701</v>
+      </c>
+      <c r="B376" t="s">
+        <v>42</v>
+      </c>
+      <c r="C376" t="s">
+        <v>18</v>
+      </c>
+      <c r="D376">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>20250701</v>
+      </c>
+      <c r="B377" t="s">
+        <v>42</v>
+      </c>
+      <c r="C377" t="s">
+        <v>19</v>
+      </c>
+      <c r="D377">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>20250701</v>
+      </c>
+      <c r="B378" t="s">
+        <v>42</v>
+      </c>
+      <c r="C378" t="s">
+        <v>20</v>
+      </c>
+      <c r="D378">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>20250701</v>
+      </c>
+      <c r="B379" t="s">
+        <v>42</v>
+      </c>
+      <c r="C379" t="s">
+        <v>21</v>
+      </c>
+      <c r="D379">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>20250701</v>
+      </c>
+      <c r="B380" t="s">
+        <v>42</v>
+      </c>
+      <c r="C380" t="s">
+        <v>22</v>
+      </c>
+      <c r="D380">
+        <v>16.170000000000002</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>20250701</v>
+      </c>
+      <c r="B381" t="s">
+        <v>42</v>
+      </c>
+      <c r="C381" t="s">
+        <v>23</v>
+      </c>
+      <c r="D381">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>20250701</v>
+      </c>
+      <c r="B382" t="s">
+        <v>43</v>
+      </c>
+      <c r="C382" t="s">
+        <v>4</v>
+      </c>
+      <c r="D382">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>20250701</v>
+      </c>
+      <c r="B383" t="s">
+        <v>43</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5</v>
+      </c>
+      <c r="D383">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>20250701</v>
+      </c>
+      <c r="B384" t="s">
+        <v>43</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>20250701</v>
+      </c>
+      <c r="B385" t="s">
+        <v>43</v>
+      </c>
+      <c r="C385" t="s">
+        <v>7</v>
+      </c>
+      <c r="D385">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>20250701</v>
+      </c>
+      <c r="B386" t="s">
+        <v>43</v>
+      </c>
+      <c r="C386" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>20250701</v>
+      </c>
+      <c r="B387" t="s">
+        <v>43</v>
+      </c>
+      <c r="C387" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>20250701</v>
+      </c>
+      <c r="B388" t="s">
+        <v>43</v>
+      </c>
+      <c r="C388" t="s">
+        <v>10</v>
+      </c>
+      <c r="D388">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>20250701</v>
+      </c>
+      <c r="B389" t="s">
+        <v>43</v>
+      </c>
+      <c r="C389" t="s">
+        <v>11</v>
+      </c>
+      <c r="D389">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>20250701</v>
+      </c>
+      <c r="B390" t="s">
+        <v>43</v>
+      </c>
+      <c r="C390" t="s">
+        <v>12</v>
+      </c>
+      <c r="D390">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>20250701</v>
+      </c>
+      <c r="B391" t="s">
+        <v>43</v>
+      </c>
+      <c r="C391" t="s">
+        <v>13</v>
+      </c>
+      <c r="D391">
+        <v>14.87</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>20250701</v>
+      </c>
+      <c r="B392" t="s">
+        <v>43</v>
+      </c>
+      <c r="C392" t="s">
+        <v>14</v>
+      </c>
+      <c r="D392">
+        <v>17.29</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>20250701</v>
+      </c>
+      <c r="B393" t="s">
+        <v>43</v>
+      </c>
+      <c r="C393" t="s">
+        <v>15</v>
+      </c>
+      <c r="D393">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>20250701</v>
+      </c>
+      <c r="B394" t="s">
+        <v>43</v>
+      </c>
+      <c r="C394" t="s">
+        <v>16</v>
+      </c>
+      <c r="D394">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>20250701</v>
+      </c>
+      <c r="B395" t="s">
+        <v>43</v>
+      </c>
+      <c r="C395" t="s">
+        <v>17</v>
+      </c>
+      <c r="D395">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>20250701</v>
+      </c>
+      <c r="B396" t="s">
+        <v>43</v>
+      </c>
+      <c r="C396" t="s">
+        <v>18</v>
+      </c>
+      <c r="D396">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>20250701</v>
+      </c>
+      <c r="B397" t="s">
+        <v>43</v>
+      </c>
+      <c r="C397" t="s">
+        <v>19</v>
+      </c>
+      <c r="D397">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>20250701</v>
+      </c>
+      <c r="B398" t="s">
+        <v>43</v>
+      </c>
+      <c r="C398" t="s">
+        <v>20</v>
+      </c>
+      <c r="D398">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>20250701</v>
+      </c>
+      <c r="B399" t="s">
+        <v>43</v>
+      </c>
+      <c r="C399" t="s">
+        <v>21</v>
+      </c>
+      <c r="D399">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>20250701</v>
+      </c>
+      <c r="B400" t="s">
+        <v>43</v>
+      </c>
+      <c r="C400" t="s">
+        <v>22</v>
+      </c>
+      <c r="D400">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>20250701</v>
+      </c>
+      <c r="B401" t="s">
+        <v>43</v>
+      </c>
+      <c r="C401" t="s">
+        <v>23</v>
+      </c>
+      <c r="D401">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>20250701</v>
+      </c>
+      <c r="B402" t="s">
+        <v>44</v>
+      </c>
+      <c r="C402" t="s">
+        <v>4</v>
+      </c>
+      <c r="D402">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>20250701</v>
+      </c>
+      <c r="B403" t="s">
+        <v>44</v>
+      </c>
+      <c r="C403" t="s">
+        <v>5</v>
+      </c>
+      <c r="D403">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>20250701</v>
+      </c>
+      <c r="B404" t="s">
+        <v>44</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>20250701</v>
+      </c>
+      <c r="B405" t="s">
+        <v>44</v>
+      </c>
+      <c r="C405" t="s">
+        <v>7</v>
+      </c>
+      <c r="D405">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>20250701</v>
+      </c>
+      <c r="B406" t="s">
+        <v>44</v>
+      </c>
+      <c r="C406" t="s">
+        <v>8</v>
+      </c>
+      <c r="D406">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>20250701</v>
+      </c>
+      <c r="B407" t="s">
+        <v>44</v>
+      </c>
+      <c r="C407" t="s">
+        <v>9</v>
+      </c>
+      <c r="D407">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>20250701</v>
+      </c>
+      <c r="B408" t="s">
+        <v>44</v>
+      </c>
+      <c r="C408" t="s">
+        <v>10</v>
+      </c>
+      <c r="D408">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>20250701</v>
+      </c>
+      <c r="B409" t="s">
+        <v>44</v>
+      </c>
+      <c r="C409" t="s">
+        <v>11</v>
+      </c>
+      <c r="D409">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>20250701</v>
+      </c>
+      <c r="B410" t="s">
+        <v>44</v>
+      </c>
+      <c r="C410" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>20250701</v>
+      </c>
+      <c r="B411" t="s">
+        <v>44</v>
+      </c>
+      <c r="C411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D411">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>20250701</v>
+      </c>
+      <c r="B412" t="s">
+        <v>44</v>
+      </c>
+      <c r="C412" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>20250701</v>
+      </c>
+      <c r="B413" t="s">
+        <v>44</v>
+      </c>
+      <c r="C413" t="s">
+        <v>15</v>
+      </c>
+      <c r="D413">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>20250701</v>
+      </c>
+      <c r="B414" t="s">
+        <v>44</v>
+      </c>
+      <c r="C414" t="s">
+        <v>16</v>
+      </c>
+      <c r="D414">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>20250701</v>
+      </c>
+      <c r="B415" t="s">
+        <v>44</v>
+      </c>
+      <c r="C415" t="s">
+        <v>17</v>
+      </c>
+      <c r="D415">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>20250701</v>
+      </c>
+      <c r="B416" t="s">
+        <v>44</v>
+      </c>
+      <c r="C416" t="s">
+        <v>18</v>
+      </c>
+      <c r="D416">
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>20250701</v>
+      </c>
+      <c r="B417" t="s">
+        <v>44</v>
+      </c>
+      <c r="C417" t="s">
+        <v>19</v>
+      </c>
+      <c r="D417">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>20250701</v>
+      </c>
+      <c r="B418" t="s">
+        <v>44</v>
+      </c>
+      <c r="C418" t="s">
+        <v>20</v>
+      </c>
+      <c r="D418">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>20250701</v>
+      </c>
+      <c r="B419" t="s">
+        <v>44</v>
+      </c>
+      <c r="C419" t="s">
+        <v>21</v>
+      </c>
+      <c r="D419">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>20250701</v>
+      </c>
+      <c r="B420" t="s">
+        <v>44</v>
+      </c>
+      <c r="C420" t="s">
+        <v>22</v>
+      </c>
+      <c r="D420">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>20250701</v>
+      </c>
+      <c r="B421" t="s">
+        <v>44</v>
+      </c>
+      <c r="C421" t="s">
+        <v>23</v>
+      </c>
+      <c r="D421">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>20250701</v>
+      </c>
+      <c r="B422" t="s">
+        <v>45</v>
+      </c>
+      <c r="C422" t="s">
+        <v>4</v>
+      </c>
+      <c r="D422">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>20250701</v>
+      </c>
+      <c r="B423" t="s">
+        <v>45</v>
+      </c>
+      <c r="C423" t="s">
+        <v>5</v>
+      </c>
+      <c r="D423">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>20250701</v>
+      </c>
+      <c r="B424" t="s">
+        <v>45</v>
+      </c>
+      <c r="C424" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>20250701</v>
+      </c>
+      <c r="B425" t="s">
+        <v>45</v>
+      </c>
+      <c r="C425" t="s">
+        <v>7</v>
+      </c>
+      <c r="D425">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>20250701</v>
+      </c>
+      <c r="B426" t="s">
+        <v>45</v>
+      </c>
+      <c r="C426" t="s">
+        <v>8</v>
+      </c>
+      <c r="D426">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>20250701</v>
+      </c>
+      <c r="B427" t="s">
+        <v>45</v>
+      </c>
+      <c r="C427" t="s">
+        <v>9</v>
+      </c>
+      <c r="D427">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>20250701</v>
+      </c>
+      <c r="B428" t="s">
+        <v>45</v>
+      </c>
+      <c r="C428" t="s">
+        <v>10</v>
+      </c>
+      <c r="D428">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>20250701</v>
+      </c>
+      <c r="B429" t="s">
+        <v>45</v>
+      </c>
+      <c r="C429" t="s">
+        <v>11</v>
+      </c>
+      <c r="D429">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>20250701</v>
+      </c>
+      <c r="B430" t="s">
+        <v>45</v>
+      </c>
+      <c r="C430" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>20250701</v>
+      </c>
+      <c r="B431" t="s">
+        <v>45</v>
+      </c>
+      <c r="C431" t="s">
+        <v>13</v>
+      </c>
+      <c r="D431">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>20250701</v>
+      </c>
+      <c r="B432" t="s">
+        <v>45</v>
+      </c>
+      <c r="C432" t="s">
+        <v>14</v>
+      </c>
+      <c r="D432">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>20250701</v>
+      </c>
+      <c r="B433" t="s">
+        <v>45</v>
+      </c>
+      <c r="C433" t="s">
+        <v>15</v>
+      </c>
+      <c r="D433">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>20250701</v>
+      </c>
+      <c r="B434" t="s">
+        <v>45</v>
+      </c>
+      <c r="C434" t="s">
+        <v>16</v>
+      </c>
+      <c r="D434">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>20250701</v>
+      </c>
+      <c r="B435" t="s">
+        <v>45</v>
+      </c>
+      <c r="C435" t="s">
+        <v>17</v>
+      </c>
+      <c r="D435">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>20250701</v>
+      </c>
+      <c r="B436" t="s">
+        <v>45</v>
+      </c>
+      <c r="C436" t="s">
+        <v>18</v>
+      </c>
+      <c r="D436">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>20250701</v>
+      </c>
+      <c r="B437" t="s">
+        <v>45</v>
+      </c>
+      <c r="C437" t="s">
+        <v>19</v>
+      </c>
+      <c r="D437">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>20250701</v>
+      </c>
+      <c r="B438" t="s">
+        <v>45</v>
+      </c>
+      <c r="C438" t="s">
+        <v>20</v>
+      </c>
+      <c r="D438">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>20250701</v>
+      </c>
+      <c r="B439" t="s">
+        <v>45</v>
+      </c>
+      <c r="C439" t="s">
+        <v>21</v>
+      </c>
+      <c r="D439">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>20250701</v>
+      </c>
+      <c r="B440" t="s">
+        <v>45</v>
+      </c>
+      <c r="C440" t="s">
+        <v>22</v>
+      </c>
+      <c r="D440">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>20250701</v>
+      </c>
+      <c r="B441" t="s">
+        <v>45</v>
+      </c>
+      <c r="C441" t="s">
+        <v>23</v>
+      </c>
+      <c r="D441">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>20250701</v>
+      </c>
+      <c r="B442" t="s">
+        <v>46</v>
+      </c>
+      <c r="C442" t="s">
+        <v>4</v>
+      </c>
+      <c r="D442">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>20250701</v>
+      </c>
+      <c r="B443" t="s">
+        <v>46</v>
+      </c>
+      <c r="C443" t="s">
+        <v>5</v>
+      </c>
+      <c r="D443">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>20250701</v>
+      </c>
+      <c r="B444" t="s">
+        <v>46</v>
+      </c>
+      <c r="C444" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>20250701</v>
+      </c>
+      <c r="B445" t="s">
+        <v>46</v>
+      </c>
+      <c r="C445" t="s">
+        <v>7</v>
+      </c>
+      <c r="D445">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>20250701</v>
+      </c>
+      <c r="B446" t="s">
+        <v>46</v>
+      </c>
+      <c r="C446" t="s">
+        <v>8</v>
+      </c>
+      <c r="D446">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>20250701</v>
+      </c>
+      <c r="B447" t="s">
+        <v>46</v>
+      </c>
+      <c r="C447" t="s">
+        <v>9</v>
+      </c>
+      <c r="D447">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>20250701</v>
+      </c>
+      <c r="B448" t="s">
+        <v>46</v>
+      </c>
+      <c r="C448" t="s">
+        <v>10</v>
+      </c>
+      <c r="D448">
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>20250701</v>
+      </c>
+      <c r="B449" t="s">
+        <v>46</v>
+      </c>
+      <c r="C449" t="s">
+        <v>11</v>
+      </c>
+      <c r="D449">
+        <v>18.829999999999998</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>20250701</v>
+      </c>
+      <c r="B450" t="s">
+        <v>46</v>
+      </c>
+      <c r="C450" t="s">
+        <v>12</v>
+      </c>
+      <c r="D450">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>20250701</v>
+      </c>
+      <c r="B451" t="s">
+        <v>46</v>
+      </c>
+      <c r="C451" t="s">
+        <v>13</v>
+      </c>
+      <c r="D451">
+        <v>16.920000000000002</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>20250701</v>
+      </c>
+      <c r="B452" t="s">
+        <v>46</v>
+      </c>
+      <c r="C452" t="s">
+        <v>14</v>
+      </c>
+      <c r="D452">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>20250701</v>
+      </c>
+      <c r="B453" t="s">
+        <v>46</v>
+      </c>
+      <c r="C453" t="s">
+        <v>15</v>
+      </c>
+      <c r="D453">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>20250701</v>
+      </c>
+      <c r="B454" t="s">
+        <v>46</v>
+      </c>
+      <c r="C454" t="s">
+        <v>16</v>
+      </c>
+      <c r="D454">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>20250701</v>
+      </c>
+      <c r="B455" t="s">
+        <v>46</v>
+      </c>
+      <c r="C455" t="s">
+        <v>17</v>
+      </c>
+      <c r="D455">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>20250701</v>
+      </c>
+      <c r="B456" t="s">
+        <v>46</v>
+      </c>
+      <c r="C456" t="s">
+        <v>18</v>
+      </c>
+      <c r="D456">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>20250701</v>
+      </c>
+      <c r="B457" t="s">
+        <v>46</v>
+      </c>
+      <c r="C457" t="s">
+        <v>19</v>
+      </c>
+      <c r="D457">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>20250701</v>
+      </c>
+      <c r="B458" t="s">
+        <v>46</v>
+      </c>
+      <c r="C458" t="s">
+        <v>20</v>
+      </c>
+      <c r="D458">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>20250701</v>
+      </c>
+      <c r="B459" t="s">
+        <v>46</v>
+      </c>
+      <c r="C459" t="s">
+        <v>21</v>
+      </c>
+      <c r="D459">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>20250701</v>
+      </c>
+      <c r="B460" t="s">
+        <v>46</v>
+      </c>
+      <c r="C460" t="s">
+        <v>22</v>
+      </c>
+      <c r="D460">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>20250701</v>
+      </c>
+      <c r="B461" t="s">
+        <v>46</v>
+      </c>
+      <c r="C461" t="s">
+        <v>23</v>
+      </c>
+      <c r="D461">
+        <v>16.77</v>
       </c>
     </row>
   </sheetData>

--- a/data/size/trial_size.xlsx
+++ b/data/size/trial_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1CF081-6F88-C54E-B1DE-7355BD4AF123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203091FD-C050-1F4E-AD20-21CBEF5DFE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="760" windowWidth="11960" windowHeight="17120" xr2:uid="{DD34C9EB-E2ED-8349-AB5F-FDE14F54E3E1}"/>
+    <workbookView xWindow="740" yWindow="760" windowWidth="11960" windowHeight="17120" xr2:uid="{DD34C9EB-E2ED-8349-AB5F-FDE14F54E3E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>plate12</t>
+  </si>
+  <si>
+    <t>plate15</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAB0EB0-0DA4-F441-80F7-FBB69504C7E9}">
-  <dimension ref="A1:D461"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="G469" sqref="G469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7010,6 +7013,286 @@
         <v>16.77</v>
       </c>
     </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>20250701</v>
+      </c>
+      <c r="B462" t="s">
+        <v>47</v>
+      </c>
+      <c r="C462" t="s">
+        <v>4</v>
+      </c>
+      <c r="D462">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>20250701</v>
+      </c>
+      <c r="B463" t="s">
+        <v>47</v>
+      </c>
+      <c r="C463" t="s">
+        <v>5</v>
+      </c>
+      <c r="D463">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>20250701</v>
+      </c>
+      <c r="B464" t="s">
+        <v>47</v>
+      </c>
+      <c r="C464" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>20250701</v>
+      </c>
+      <c r="B465" t="s">
+        <v>47</v>
+      </c>
+      <c r="C465" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>20250701</v>
+      </c>
+      <c r="B466" t="s">
+        <v>47</v>
+      </c>
+      <c r="C466" t="s">
+        <v>8</v>
+      </c>
+      <c r="D466">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>20250701</v>
+      </c>
+      <c r="B467" t="s">
+        <v>47</v>
+      </c>
+      <c r="C467" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>20250701</v>
+      </c>
+      <c r="B468" t="s">
+        <v>47</v>
+      </c>
+      <c r="C468" t="s">
+        <v>10</v>
+      </c>
+      <c r="D468">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>20250701</v>
+      </c>
+      <c r="B469" t="s">
+        <v>47</v>
+      </c>
+      <c r="C469" t="s">
+        <v>11</v>
+      </c>
+      <c r="D469">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>20250701</v>
+      </c>
+      <c r="B470" t="s">
+        <v>47</v>
+      </c>
+      <c r="C470" t="s">
+        <v>12</v>
+      </c>
+      <c r="D470">
+        <v>13.39</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>20250701</v>
+      </c>
+      <c r="B471" t="s">
+        <v>47</v>
+      </c>
+      <c r="C471" t="s">
+        <v>13</v>
+      </c>
+      <c r="D471">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>20250701</v>
+      </c>
+      <c r="B472" t="s">
+        <v>47</v>
+      </c>
+      <c r="C472" t="s">
+        <v>14</v>
+      </c>
+      <c r="D472">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>20250701</v>
+      </c>
+      <c r="B473" t="s">
+        <v>47</v>
+      </c>
+      <c r="C473" t="s">
+        <v>15</v>
+      </c>
+      <c r="D473">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>20250701</v>
+      </c>
+      <c r="B474" t="s">
+        <v>47</v>
+      </c>
+      <c r="C474" t="s">
+        <v>16</v>
+      </c>
+      <c r="D474">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>20250701</v>
+      </c>
+      <c r="B475" t="s">
+        <v>47</v>
+      </c>
+      <c r="C475" t="s">
+        <v>17</v>
+      </c>
+      <c r="D475">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>20250701</v>
+      </c>
+      <c r="B476" t="s">
+        <v>47</v>
+      </c>
+      <c r="C476" t="s">
+        <v>18</v>
+      </c>
+      <c r="D476">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>20250701</v>
+      </c>
+      <c r="B477" t="s">
+        <v>47</v>
+      </c>
+      <c r="C477" t="s">
+        <v>19</v>
+      </c>
+      <c r="D477">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>20250701</v>
+      </c>
+      <c r="B478" t="s">
+        <v>47</v>
+      </c>
+      <c r="C478" t="s">
+        <v>20</v>
+      </c>
+      <c r="D478">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>20250701</v>
+      </c>
+      <c r="B479" t="s">
+        <v>47</v>
+      </c>
+      <c r="C479" t="s">
+        <v>21</v>
+      </c>
+      <c r="D479">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>20250701</v>
+      </c>
+      <c r="B480" t="s">
+        <v>47</v>
+      </c>
+      <c r="C480" t="s">
+        <v>22</v>
+      </c>
+      <c r="D480">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>20250701</v>
+      </c>
+      <c r="B481" t="s">
+        <v>47</v>
+      </c>
+      <c r="C481" t="s">
+        <v>23</v>
+      </c>
+      <c r="D481">
+        <v>13.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/size/trial_size.xlsx
+++ b/data/size/trial_size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203091FD-C050-1F4E-AD20-21CBEF5DFE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB05144F-A5CC-DC4E-B413-9404678F702B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="11960" windowHeight="17120" xr2:uid="{DD34C9EB-E2ED-8349-AB5F-FDE14F54E3E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="74">
   <si>
     <t>date</t>
   </si>
@@ -180,6 +180,84 @@
   </si>
   <si>
     <t>plate15</t>
+  </si>
+  <si>
+    <t>plate25</t>
+  </si>
+  <si>
+    <t>plate26</t>
+  </si>
+  <si>
+    <t>plate27</t>
+  </si>
+  <si>
+    <t>plate28</t>
+  </si>
+  <si>
+    <t>plate29</t>
+  </si>
+  <si>
+    <t>plate30</t>
+  </si>
+  <si>
+    <t>plate31</t>
+  </si>
+  <si>
+    <t>plate32</t>
+  </si>
+  <si>
+    <t>plate33</t>
+  </si>
+  <si>
+    <t>plate34</t>
+  </si>
+  <si>
+    <t>plate35</t>
+  </si>
+  <si>
+    <t>plate36</t>
+  </si>
+  <si>
+    <t>plate37</t>
+  </si>
+  <si>
+    <t>plate38</t>
+  </si>
+  <si>
+    <t>plate39</t>
+  </si>
+  <si>
+    <t>plate40</t>
+  </si>
+  <si>
+    <t>plate41</t>
+  </si>
+  <si>
+    <t>plate42</t>
+  </si>
+  <si>
+    <t>plate43</t>
+  </si>
+  <si>
+    <t>plate44</t>
+  </si>
+  <si>
+    <t>plate45</t>
+  </si>
+  <si>
+    <t>plate46</t>
+  </si>
+  <si>
+    <t>plate47</t>
+  </si>
+  <si>
+    <t>plate48</t>
+  </si>
+  <si>
+    <t>plateA</t>
+  </si>
+  <si>
+    <t>plateB</t>
   </si>
 </sst>
 </file>
@@ -551,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAB0EB0-0DA4-F441-80F7-FBB69504C7E9}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="G469" sqref="G469"/>
+    <sheetView tabSelected="1" topLeftCell="A468" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E484" sqref="E484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7293,6 +7371,7286 @@
         <v>13.81</v>
       </c>
     </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>20250702</v>
+      </c>
+      <c r="B482" t="s">
+        <v>48</v>
+      </c>
+      <c r="C482" t="s">
+        <v>4</v>
+      </c>
+      <c r="D482">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>20250702</v>
+      </c>
+      <c r="B483" t="s">
+        <v>48</v>
+      </c>
+      <c r="C483" t="s">
+        <v>5</v>
+      </c>
+      <c r="D483">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>20250702</v>
+      </c>
+      <c r="B484" t="s">
+        <v>48</v>
+      </c>
+      <c r="C484" t="s">
+        <v>6</v>
+      </c>
+      <c r="D484">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>20250702</v>
+      </c>
+      <c r="B485" t="s">
+        <v>48</v>
+      </c>
+      <c r="C485" t="s">
+        <v>7</v>
+      </c>
+      <c r="D485">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>20250702</v>
+      </c>
+      <c r="B486" t="s">
+        <v>48</v>
+      </c>
+      <c r="C486" t="s">
+        <v>8</v>
+      </c>
+      <c r="D486">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>20250702</v>
+      </c>
+      <c r="B487" t="s">
+        <v>48</v>
+      </c>
+      <c r="C487" t="s">
+        <v>9</v>
+      </c>
+      <c r="D487">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>20250702</v>
+      </c>
+      <c r="B488" t="s">
+        <v>48</v>
+      </c>
+      <c r="C488" t="s">
+        <v>10</v>
+      </c>
+      <c r="D488">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>20250702</v>
+      </c>
+      <c r="B489" t="s">
+        <v>48</v>
+      </c>
+      <c r="C489" t="s">
+        <v>11</v>
+      </c>
+      <c r="D489">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>20250702</v>
+      </c>
+      <c r="B490" t="s">
+        <v>48</v>
+      </c>
+      <c r="C490" t="s">
+        <v>12</v>
+      </c>
+      <c r="D490">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>20250702</v>
+      </c>
+      <c r="B491" t="s">
+        <v>48</v>
+      </c>
+      <c r="C491" t="s">
+        <v>13</v>
+      </c>
+      <c r="D491">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>20250702</v>
+      </c>
+      <c r="B492" t="s">
+        <v>48</v>
+      </c>
+      <c r="C492" t="s">
+        <v>14</v>
+      </c>
+      <c r="D492">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>20250702</v>
+      </c>
+      <c r="B493" t="s">
+        <v>48</v>
+      </c>
+      <c r="C493" t="s">
+        <v>15</v>
+      </c>
+      <c r="D493">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>20250702</v>
+      </c>
+      <c r="B494" t="s">
+        <v>48</v>
+      </c>
+      <c r="C494" t="s">
+        <v>16</v>
+      </c>
+      <c r="D494">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>20250702</v>
+      </c>
+      <c r="B495" t="s">
+        <v>48</v>
+      </c>
+      <c r="C495" t="s">
+        <v>17</v>
+      </c>
+      <c r="D495">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>20250702</v>
+      </c>
+      <c r="B496" t="s">
+        <v>48</v>
+      </c>
+      <c r="C496" t="s">
+        <v>18</v>
+      </c>
+      <c r="D496">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>20250702</v>
+      </c>
+      <c r="B497" t="s">
+        <v>48</v>
+      </c>
+      <c r="C497" t="s">
+        <v>19</v>
+      </c>
+      <c r="D497">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>20250702</v>
+      </c>
+      <c r="B498" t="s">
+        <v>48</v>
+      </c>
+      <c r="C498" t="s">
+        <v>20</v>
+      </c>
+      <c r="D498">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>20250702</v>
+      </c>
+      <c r="B499" t="s">
+        <v>48</v>
+      </c>
+      <c r="C499" t="s">
+        <v>21</v>
+      </c>
+      <c r="D499">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>20250702</v>
+      </c>
+      <c r="B500" t="s">
+        <v>48</v>
+      </c>
+      <c r="C500" t="s">
+        <v>22</v>
+      </c>
+      <c r="D500">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>20250702</v>
+      </c>
+      <c r="B501" t="s">
+        <v>48</v>
+      </c>
+      <c r="C501" t="s">
+        <v>23</v>
+      </c>
+      <c r="D501">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>20250702</v>
+      </c>
+      <c r="B502" t="s">
+        <v>49</v>
+      </c>
+      <c r="C502" t="s">
+        <v>4</v>
+      </c>
+      <c r="D502">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>20250702</v>
+      </c>
+      <c r="B503" t="s">
+        <v>49</v>
+      </c>
+      <c r="C503" t="s">
+        <v>5</v>
+      </c>
+      <c r="D503">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>20250702</v>
+      </c>
+      <c r="B504" t="s">
+        <v>49</v>
+      </c>
+      <c r="C504" t="s">
+        <v>6</v>
+      </c>
+      <c r="D504">
+        <v>13.51</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>20250702</v>
+      </c>
+      <c r="B505" t="s">
+        <v>49</v>
+      </c>
+      <c r="C505" t="s">
+        <v>7</v>
+      </c>
+      <c r="D505">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>20250702</v>
+      </c>
+      <c r="B506" t="s">
+        <v>49</v>
+      </c>
+      <c r="C506" t="s">
+        <v>8</v>
+      </c>
+      <c r="D506">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>20250702</v>
+      </c>
+      <c r="B507" t="s">
+        <v>49</v>
+      </c>
+      <c r="C507" t="s">
+        <v>9</v>
+      </c>
+      <c r="D507">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>20250702</v>
+      </c>
+      <c r="B508" t="s">
+        <v>49</v>
+      </c>
+      <c r="C508" t="s">
+        <v>10</v>
+      </c>
+      <c r="D508">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>20250702</v>
+      </c>
+      <c r="B509" t="s">
+        <v>49</v>
+      </c>
+      <c r="C509" t="s">
+        <v>11</v>
+      </c>
+      <c r="D509">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>20250702</v>
+      </c>
+      <c r="B510" t="s">
+        <v>49</v>
+      </c>
+      <c r="C510" t="s">
+        <v>12</v>
+      </c>
+      <c r="D510">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>20250702</v>
+      </c>
+      <c r="B511" t="s">
+        <v>49</v>
+      </c>
+      <c r="C511" t="s">
+        <v>13</v>
+      </c>
+      <c r="D511">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>20250702</v>
+      </c>
+      <c r="B512" t="s">
+        <v>49</v>
+      </c>
+      <c r="C512" t="s">
+        <v>14</v>
+      </c>
+      <c r="D512">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>20250702</v>
+      </c>
+      <c r="B513" t="s">
+        <v>49</v>
+      </c>
+      <c r="C513" t="s">
+        <v>15</v>
+      </c>
+      <c r="D513">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>20250702</v>
+      </c>
+      <c r="B514" t="s">
+        <v>49</v>
+      </c>
+      <c r="C514" t="s">
+        <v>16</v>
+      </c>
+      <c r="D514">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>20250702</v>
+      </c>
+      <c r="B515" t="s">
+        <v>49</v>
+      </c>
+      <c r="C515" t="s">
+        <v>17</v>
+      </c>
+      <c r="D515">
+        <v>14.07</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>20250702</v>
+      </c>
+      <c r="B516" t="s">
+        <v>49</v>
+      </c>
+      <c r="C516" t="s">
+        <v>18</v>
+      </c>
+      <c r="D516">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>20250702</v>
+      </c>
+      <c r="B517" t="s">
+        <v>49</v>
+      </c>
+      <c r="C517" t="s">
+        <v>19</v>
+      </c>
+      <c r="D517">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>20250702</v>
+      </c>
+      <c r="B518" t="s">
+        <v>49</v>
+      </c>
+      <c r="C518" t="s">
+        <v>20</v>
+      </c>
+      <c r="D518">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>20250702</v>
+      </c>
+      <c r="B519" t="s">
+        <v>49</v>
+      </c>
+      <c r="C519" t="s">
+        <v>21</v>
+      </c>
+      <c r="D519">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>20250702</v>
+      </c>
+      <c r="B520" t="s">
+        <v>49</v>
+      </c>
+      <c r="C520" t="s">
+        <v>22</v>
+      </c>
+      <c r="D520">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>20250702</v>
+      </c>
+      <c r="B521" t="s">
+        <v>49</v>
+      </c>
+      <c r="C521" t="s">
+        <v>23</v>
+      </c>
+      <c r="D521">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>20250702</v>
+      </c>
+      <c r="B522" t="s">
+        <v>50</v>
+      </c>
+      <c r="C522" t="s">
+        <v>4</v>
+      </c>
+      <c r="D522">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>20250702</v>
+      </c>
+      <c r="B523" t="s">
+        <v>50</v>
+      </c>
+      <c r="C523" t="s">
+        <v>5</v>
+      </c>
+      <c r="D523">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>20250702</v>
+      </c>
+      <c r="B524" t="s">
+        <v>50</v>
+      </c>
+      <c r="C524" t="s">
+        <v>6</v>
+      </c>
+      <c r="D524">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>20250702</v>
+      </c>
+      <c r="B525" t="s">
+        <v>50</v>
+      </c>
+      <c r="C525" t="s">
+        <v>7</v>
+      </c>
+      <c r="D525">
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>20250702</v>
+      </c>
+      <c r="B526" t="s">
+        <v>50</v>
+      </c>
+      <c r="C526" t="s">
+        <v>8</v>
+      </c>
+      <c r="D526">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>20250702</v>
+      </c>
+      <c r="B527" t="s">
+        <v>50</v>
+      </c>
+      <c r="C527" t="s">
+        <v>9</v>
+      </c>
+      <c r="D527">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>20250702</v>
+      </c>
+      <c r="B528" t="s">
+        <v>50</v>
+      </c>
+      <c r="C528" t="s">
+        <v>10</v>
+      </c>
+      <c r="D528">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>20250702</v>
+      </c>
+      <c r="B529" t="s">
+        <v>50</v>
+      </c>
+      <c r="C529" t="s">
+        <v>11</v>
+      </c>
+      <c r="D529">
+        <v>10.029999999999999</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>20250702</v>
+      </c>
+      <c r="B530" t="s">
+        <v>50</v>
+      </c>
+      <c r="C530" t="s">
+        <v>12</v>
+      </c>
+      <c r="D530">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>20250702</v>
+      </c>
+      <c r="B531" t="s">
+        <v>50</v>
+      </c>
+      <c r="C531" t="s">
+        <v>13</v>
+      </c>
+      <c r="D531">
+        <v>13.11</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>20250702</v>
+      </c>
+      <c r="B532" t="s">
+        <v>50</v>
+      </c>
+      <c r="C532" t="s">
+        <v>14</v>
+      </c>
+      <c r="D532">
+        <v>18.63</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>20250702</v>
+      </c>
+      <c r="B533" t="s">
+        <v>50</v>
+      </c>
+      <c r="C533" t="s">
+        <v>15</v>
+      </c>
+      <c r="D533">
+        <v>15.41</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>20250702</v>
+      </c>
+      <c r="B534" t="s">
+        <v>50</v>
+      </c>
+      <c r="C534" t="s">
+        <v>16</v>
+      </c>
+      <c r="D534">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>20250702</v>
+      </c>
+      <c r="B535" t="s">
+        <v>50</v>
+      </c>
+      <c r="C535" t="s">
+        <v>17</v>
+      </c>
+      <c r="D535">
+        <v>14.87</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>20250702</v>
+      </c>
+      <c r="B536" t="s">
+        <v>50</v>
+      </c>
+      <c r="C536" t="s">
+        <v>18</v>
+      </c>
+      <c r="D536">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>20250702</v>
+      </c>
+      <c r="B537" t="s">
+        <v>50</v>
+      </c>
+      <c r="C537" t="s">
+        <v>19</v>
+      </c>
+      <c r="D537">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>20250702</v>
+      </c>
+      <c r="B538" t="s">
+        <v>50</v>
+      </c>
+      <c r="C538" t="s">
+        <v>20</v>
+      </c>
+      <c r="D538">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>20250702</v>
+      </c>
+      <c r="B539" t="s">
+        <v>50</v>
+      </c>
+      <c r="C539" t="s">
+        <v>21</v>
+      </c>
+      <c r="D539">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>20250702</v>
+      </c>
+      <c r="B540" t="s">
+        <v>50</v>
+      </c>
+      <c r="C540" t="s">
+        <v>22</v>
+      </c>
+      <c r="D540">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>20250702</v>
+      </c>
+      <c r="B541" t="s">
+        <v>50</v>
+      </c>
+      <c r="C541" t="s">
+        <v>23</v>
+      </c>
+      <c r="D541">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>20250702</v>
+      </c>
+      <c r="B542" t="s">
+        <v>51</v>
+      </c>
+      <c r="C542" t="s">
+        <v>4</v>
+      </c>
+      <c r="D542">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>20250702</v>
+      </c>
+      <c r="B543" t="s">
+        <v>51</v>
+      </c>
+      <c r="C543" t="s">
+        <v>5</v>
+      </c>
+      <c r="D543">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>20250702</v>
+      </c>
+      <c r="B544" t="s">
+        <v>51</v>
+      </c>
+      <c r="C544" t="s">
+        <v>6</v>
+      </c>
+      <c r="D544">
+        <v>15.14</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>20250702</v>
+      </c>
+      <c r="B545" t="s">
+        <v>51</v>
+      </c>
+      <c r="C545" t="s">
+        <v>7</v>
+      </c>
+      <c r="D545">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>20250702</v>
+      </c>
+      <c r="B546" t="s">
+        <v>51</v>
+      </c>
+      <c r="C546" t="s">
+        <v>8</v>
+      </c>
+      <c r="D546">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>20250702</v>
+      </c>
+      <c r="B547" t="s">
+        <v>51</v>
+      </c>
+      <c r="C547" t="s">
+        <v>9</v>
+      </c>
+      <c r="D547">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>20250702</v>
+      </c>
+      <c r="B548" t="s">
+        <v>51</v>
+      </c>
+      <c r="C548" t="s">
+        <v>10</v>
+      </c>
+      <c r="D548">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>20250702</v>
+      </c>
+      <c r="B549" t="s">
+        <v>51</v>
+      </c>
+      <c r="C549" t="s">
+        <v>11</v>
+      </c>
+      <c r="D549">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>20250702</v>
+      </c>
+      <c r="B550" t="s">
+        <v>51</v>
+      </c>
+      <c r="C550" t="s">
+        <v>12</v>
+      </c>
+      <c r="D550">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>20250702</v>
+      </c>
+      <c r="B551" t="s">
+        <v>51</v>
+      </c>
+      <c r="C551" t="s">
+        <v>13</v>
+      </c>
+      <c r="D551">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>20250702</v>
+      </c>
+      <c r="B552" t="s">
+        <v>51</v>
+      </c>
+      <c r="C552" t="s">
+        <v>14</v>
+      </c>
+      <c r="D552">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>20250702</v>
+      </c>
+      <c r="B553" t="s">
+        <v>51</v>
+      </c>
+      <c r="C553" t="s">
+        <v>15</v>
+      </c>
+      <c r="D553">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>20250702</v>
+      </c>
+      <c r="B554" t="s">
+        <v>51</v>
+      </c>
+      <c r="C554" t="s">
+        <v>16</v>
+      </c>
+      <c r="D554">
+        <v>20.239999999999998</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>20250702</v>
+      </c>
+      <c r="B555" t="s">
+        <v>51</v>
+      </c>
+      <c r="C555" t="s">
+        <v>17</v>
+      </c>
+      <c r="D555">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>20250702</v>
+      </c>
+      <c r="B556" t="s">
+        <v>51</v>
+      </c>
+      <c r="C556" t="s">
+        <v>18</v>
+      </c>
+      <c r="D556">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>20250702</v>
+      </c>
+      <c r="B557" t="s">
+        <v>51</v>
+      </c>
+      <c r="C557" t="s">
+        <v>19</v>
+      </c>
+      <c r="D557">
+        <v>14.47</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>20250702</v>
+      </c>
+      <c r="B558" t="s">
+        <v>51</v>
+      </c>
+      <c r="C558" t="s">
+        <v>20</v>
+      </c>
+      <c r="D558">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>20250702</v>
+      </c>
+      <c r="B559" t="s">
+        <v>51</v>
+      </c>
+      <c r="C559" t="s">
+        <v>21</v>
+      </c>
+      <c r="D559">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>20250702</v>
+      </c>
+      <c r="B560" t="s">
+        <v>51</v>
+      </c>
+      <c r="C560" t="s">
+        <v>22</v>
+      </c>
+      <c r="D560">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>20250702</v>
+      </c>
+      <c r="B561" t="s">
+        <v>51</v>
+      </c>
+      <c r="C561" t="s">
+        <v>23</v>
+      </c>
+      <c r="D561">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>20250702</v>
+      </c>
+      <c r="B562" t="s">
+        <v>52</v>
+      </c>
+      <c r="C562" t="s">
+        <v>4</v>
+      </c>
+      <c r="D562">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>20250702</v>
+      </c>
+      <c r="B563" t="s">
+        <v>52</v>
+      </c>
+      <c r="C563" t="s">
+        <v>5</v>
+      </c>
+      <c r="D563">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>20250702</v>
+      </c>
+      <c r="B564" t="s">
+        <v>52</v>
+      </c>
+      <c r="C564" t="s">
+        <v>6</v>
+      </c>
+      <c r="D564">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>20250702</v>
+      </c>
+      <c r="B565" t="s">
+        <v>52</v>
+      </c>
+      <c r="C565" t="s">
+        <v>7</v>
+      </c>
+      <c r="D565">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>20250702</v>
+      </c>
+      <c r="B566" t="s">
+        <v>52</v>
+      </c>
+      <c r="C566" t="s">
+        <v>8</v>
+      </c>
+      <c r="D566">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>20250702</v>
+      </c>
+      <c r="B567" t="s">
+        <v>52</v>
+      </c>
+      <c r="C567" t="s">
+        <v>9</v>
+      </c>
+      <c r="D567">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>20250702</v>
+      </c>
+      <c r="B568" t="s">
+        <v>52</v>
+      </c>
+      <c r="C568" t="s">
+        <v>10</v>
+      </c>
+      <c r="D568">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>20250702</v>
+      </c>
+      <c r="B569" t="s">
+        <v>52</v>
+      </c>
+      <c r="C569" t="s">
+        <v>11</v>
+      </c>
+      <c r="D569">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>20250702</v>
+      </c>
+      <c r="B570" t="s">
+        <v>52</v>
+      </c>
+      <c r="C570" t="s">
+        <v>12</v>
+      </c>
+      <c r="D570">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>20250702</v>
+      </c>
+      <c r="B571" t="s">
+        <v>52</v>
+      </c>
+      <c r="C571" t="s">
+        <v>13</v>
+      </c>
+      <c r="D571">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>20250702</v>
+      </c>
+      <c r="B572" t="s">
+        <v>52</v>
+      </c>
+      <c r="C572" t="s">
+        <v>14</v>
+      </c>
+      <c r="D572">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>20250702</v>
+      </c>
+      <c r="B573" t="s">
+        <v>52</v>
+      </c>
+      <c r="C573" t="s">
+        <v>15</v>
+      </c>
+      <c r="D573">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>20250702</v>
+      </c>
+      <c r="B574" t="s">
+        <v>52</v>
+      </c>
+      <c r="C574" t="s">
+        <v>16</v>
+      </c>
+      <c r="D574">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>20250702</v>
+      </c>
+      <c r="B575" t="s">
+        <v>52</v>
+      </c>
+      <c r="C575" t="s">
+        <v>17</v>
+      </c>
+      <c r="D575">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>20250702</v>
+      </c>
+      <c r="B576" t="s">
+        <v>52</v>
+      </c>
+      <c r="C576" t="s">
+        <v>18</v>
+      </c>
+      <c r="D576">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>20250702</v>
+      </c>
+      <c r="B577" t="s">
+        <v>52</v>
+      </c>
+      <c r="C577" t="s">
+        <v>19</v>
+      </c>
+      <c r="D577">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>20250702</v>
+      </c>
+      <c r="B578" t="s">
+        <v>52</v>
+      </c>
+      <c r="C578" t="s">
+        <v>20</v>
+      </c>
+      <c r="D578">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>20250702</v>
+      </c>
+      <c r="B579" t="s">
+        <v>52</v>
+      </c>
+      <c r="C579" t="s">
+        <v>21</v>
+      </c>
+      <c r="D579">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>20250702</v>
+      </c>
+      <c r="B580" t="s">
+        <v>52</v>
+      </c>
+      <c r="C580" t="s">
+        <v>22</v>
+      </c>
+      <c r="D580">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>20250702</v>
+      </c>
+      <c r="B581" t="s">
+        <v>52</v>
+      </c>
+      <c r="C581" t="s">
+        <v>23</v>
+      </c>
+      <c r="D581">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>20250702</v>
+      </c>
+      <c r="B582" t="s">
+        <v>53</v>
+      </c>
+      <c r="C582" t="s">
+        <v>4</v>
+      </c>
+      <c r="D582">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>20250702</v>
+      </c>
+      <c r="B583" t="s">
+        <v>53</v>
+      </c>
+      <c r="C583" t="s">
+        <v>5</v>
+      </c>
+      <c r="D583">
+        <v>16.350000000000001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>20250702</v>
+      </c>
+      <c r="B584" t="s">
+        <v>53</v>
+      </c>
+      <c r="C584" t="s">
+        <v>6</v>
+      </c>
+      <c r="D584">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>20250702</v>
+      </c>
+      <c r="B585" t="s">
+        <v>53</v>
+      </c>
+      <c r="C585" t="s">
+        <v>7</v>
+      </c>
+      <c r="D585">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>20250702</v>
+      </c>
+      <c r="B586" t="s">
+        <v>53</v>
+      </c>
+      <c r="C586" t="s">
+        <v>8</v>
+      </c>
+      <c r="D586">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>20250702</v>
+      </c>
+      <c r="B587" t="s">
+        <v>53</v>
+      </c>
+      <c r="C587" t="s">
+        <v>9</v>
+      </c>
+      <c r="D587">
+        <v>14.68</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>20250702</v>
+      </c>
+      <c r="B588" t="s">
+        <v>53</v>
+      </c>
+      <c r="C588" t="s">
+        <v>10</v>
+      </c>
+      <c r="D588">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>20250702</v>
+      </c>
+      <c r="B589" t="s">
+        <v>53</v>
+      </c>
+      <c r="C589" t="s">
+        <v>11</v>
+      </c>
+      <c r="D589">
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>20250702</v>
+      </c>
+      <c r="B590" t="s">
+        <v>53</v>
+      </c>
+      <c r="C590" t="s">
+        <v>12</v>
+      </c>
+      <c r="D590">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>20250702</v>
+      </c>
+      <c r="B591" t="s">
+        <v>53</v>
+      </c>
+      <c r="C591" t="s">
+        <v>13</v>
+      </c>
+      <c r="D591">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>20250702</v>
+      </c>
+      <c r="B592" t="s">
+        <v>53</v>
+      </c>
+      <c r="C592" t="s">
+        <v>14</v>
+      </c>
+      <c r="D592">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>20250702</v>
+      </c>
+      <c r="B593" t="s">
+        <v>53</v>
+      </c>
+      <c r="C593" t="s">
+        <v>15</v>
+      </c>
+      <c r="D593">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>20250702</v>
+      </c>
+      <c r="B594" t="s">
+        <v>53</v>
+      </c>
+      <c r="C594" t="s">
+        <v>16</v>
+      </c>
+      <c r="D594">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>20250702</v>
+      </c>
+      <c r="B595" t="s">
+        <v>53</v>
+      </c>
+      <c r="C595" t="s">
+        <v>17</v>
+      </c>
+      <c r="D595">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>20250702</v>
+      </c>
+      <c r="B596" t="s">
+        <v>53</v>
+      </c>
+      <c r="C596" t="s">
+        <v>18</v>
+      </c>
+      <c r="D596">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>20250702</v>
+      </c>
+      <c r="B597" t="s">
+        <v>53</v>
+      </c>
+      <c r="C597" t="s">
+        <v>19</v>
+      </c>
+      <c r="D597">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>20250702</v>
+      </c>
+      <c r="B598" t="s">
+        <v>53</v>
+      </c>
+      <c r="C598" t="s">
+        <v>20</v>
+      </c>
+      <c r="D598">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>20250702</v>
+      </c>
+      <c r="B599" t="s">
+        <v>53</v>
+      </c>
+      <c r="C599" t="s">
+        <v>21</v>
+      </c>
+      <c r="D599">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>20250702</v>
+      </c>
+      <c r="B600" t="s">
+        <v>53</v>
+      </c>
+      <c r="C600" t="s">
+        <v>22</v>
+      </c>
+      <c r="D600">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>20250702</v>
+      </c>
+      <c r="B601" t="s">
+        <v>53</v>
+      </c>
+      <c r="C601" t="s">
+        <v>23</v>
+      </c>
+      <c r="D601">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>20250702</v>
+      </c>
+      <c r="B602" t="s">
+        <v>54</v>
+      </c>
+      <c r="C602" t="s">
+        <v>4</v>
+      </c>
+      <c r="D602">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>20250702</v>
+      </c>
+      <c r="B603" t="s">
+        <v>54</v>
+      </c>
+      <c r="C603" t="s">
+        <v>5</v>
+      </c>
+      <c r="D603">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>20250702</v>
+      </c>
+      <c r="B604" t="s">
+        <v>54</v>
+      </c>
+      <c r="C604" t="s">
+        <v>6</v>
+      </c>
+      <c r="D604">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>20250702</v>
+      </c>
+      <c r="B605" t="s">
+        <v>54</v>
+      </c>
+      <c r="C605" t="s">
+        <v>7</v>
+      </c>
+      <c r="D605">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>20250702</v>
+      </c>
+      <c r="B606" t="s">
+        <v>54</v>
+      </c>
+      <c r="C606" t="s">
+        <v>8</v>
+      </c>
+      <c r="D606">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>20250702</v>
+      </c>
+      <c r="B607" t="s">
+        <v>54</v>
+      </c>
+      <c r="C607" t="s">
+        <v>9</v>
+      </c>
+      <c r="D607">
+        <v>16.170000000000002</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>20250702</v>
+      </c>
+      <c r="B608" t="s">
+        <v>54</v>
+      </c>
+      <c r="C608" t="s">
+        <v>10</v>
+      </c>
+      <c r="D608">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>20250702</v>
+      </c>
+      <c r="B609" t="s">
+        <v>54</v>
+      </c>
+      <c r="C609" t="s">
+        <v>11</v>
+      </c>
+      <c r="D609">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>20250702</v>
+      </c>
+      <c r="B610" t="s">
+        <v>54</v>
+      </c>
+      <c r="C610" t="s">
+        <v>12</v>
+      </c>
+      <c r="D610">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>20250702</v>
+      </c>
+      <c r="B611" t="s">
+        <v>54</v>
+      </c>
+      <c r="C611" t="s">
+        <v>13</v>
+      </c>
+      <c r="D611">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>20250702</v>
+      </c>
+      <c r="B612" t="s">
+        <v>54</v>
+      </c>
+      <c r="C612" t="s">
+        <v>14</v>
+      </c>
+      <c r="D612">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>20250702</v>
+      </c>
+      <c r="B613" t="s">
+        <v>54</v>
+      </c>
+      <c r="C613" t="s">
+        <v>15</v>
+      </c>
+      <c r="D613">
+        <v>17.23</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>20250702</v>
+      </c>
+      <c r="B614" t="s">
+        <v>54</v>
+      </c>
+      <c r="C614" t="s">
+        <v>16</v>
+      </c>
+      <c r="D614">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>20250702</v>
+      </c>
+      <c r="B615" t="s">
+        <v>54</v>
+      </c>
+      <c r="C615" t="s">
+        <v>17</v>
+      </c>
+      <c r="D615">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>20250702</v>
+      </c>
+      <c r="B616" t="s">
+        <v>54</v>
+      </c>
+      <c r="C616" t="s">
+        <v>18</v>
+      </c>
+      <c r="D616">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>20250702</v>
+      </c>
+      <c r="B617" t="s">
+        <v>54</v>
+      </c>
+      <c r="C617" t="s">
+        <v>19</v>
+      </c>
+      <c r="D617">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>20250702</v>
+      </c>
+      <c r="B618" t="s">
+        <v>54</v>
+      </c>
+      <c r="C618" t="s">
+        <v>20</v>
+      </c>
+      <c r="D618">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>20250702</v>
+      </c>
+      <c r="B619" t="s">
+        <v>54</v>
+      </c>
+      <c r="C619" t="s">
+        <v>21</v>
+      </c>
+      <c r="D619">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>20250702</v>
+      </c>
+      <c r="B620" t="s">
+        <v>54</v>
+      </c>
+      <c r="C620" t="s">
+        <v>22</v>
+      </c>
+      <c r="D620">
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>20250702</v>
+      </c>
+      <c r="B621" t="s">
+        <v>54</v>
+      </c>
+      <c r="C621" t="s">
+        <v>23</v>
+      </c>
+      <c r="D621">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>20250702</v>
+      </c>
+      <c r="B622" t="s">
+        <v>55</v>
+      </c>
+      <c r="C622" t="s">
+        <v>4</v>
+      </c>
+      <c r="D622">
+        <v>13.11</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>20250702</v>
+      </c>
+      <c r="B623" t="s">
+        <v>55</v>
+      </c>
+      <c r="C623" t="s">
+        <v>5</v>
+      </c>
+      <c r="D623">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>20250702</v>
+      </c>
+      <c r="B624" t="s">
+        <v>55</v>
+      </c>
+      <c r="C624" t="s">
+        <v>6</v>
+      </c>
+      <c r="D624">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>20250702</v>
+      </c>
+      <c r="B625" t="s">
+        <v>55</v>
+      </c>
+      <c r="C625" t="s">
+        <v>7</v>
+      </c>
+      <c r="D625">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>20250702</v>
+      </c>
+      <c r="B626" t="s">
+        <v>55</v>
+      </c>
+      <c r="C626" t="s">
+        <v>8</v>
+      </c>
+      <c r="D626">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>20250702</v>
+      </c>
+      <c r="B627" t="s">
+        <v>55</v>
+      </c>
+      <c r="C627" t="s">
+        <v>9</v>
+      </c>
+      <c r="D627">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>20250702</v>
+      </c>
+      <c r="B628" t="s">
+        <v>55</v>
+      </c>
+      <c r="C628" t="s">
+        <v>10</v>
+      </c>
+      <c r="D628">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>20250702</v>
+      </c>
+      <c r="B629" t="s">
+        <v>55</v>
+      </c>
+      <c r="C629" t="s">
+        <v>11</v>
+      </c>
+      <c r="D629">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>20250702</v>
+      </c>
+      <c r="B630" t="s">
+        <v>55</v>
+      </c>
+      <c r="C630" t="s">
+        <v>12</v>
+      </c>
+      <c r="D630">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>20250702</v>
+      </c>
+      <c r="B631" t="s">
+        <v>55</v>
+      </c>
+      <c r="C631" t="s">
+        <v>13</v>
+      </c>
+      <c r="D631">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>20250702</v>
+      </c>
+      <c r="B632" t="s">
+        <v>55</v>
+      </c>
+      <c r="C632" t="s">
+        <v>14</v>
+      </c>
+      <c r="D632">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>20250702</v>
+      </c>
+      <c r="B633" t="s">
+        <v>55</v>
+      </c>
+      <c r="C633" t="s">
+        <v>15</v>
+      </c>
+      <c r="D633">
+        <v>16.940000000000001</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>20250702</v>
+      </c>
+      <c r="B634" t="s">
+        <v>55</v>
+      </c>
+      <c r="C634" t="s">
+        <v>16</v>
+      </c>
+      <c r="D634">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>20250702</v>
+      </c>
+      <c r="B635" t="s">
+        <v>55</v>
+      </c>
+      <c r="C635" t="s">
+        <v>17</v>
+      </c>
+      <c r="D635">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>20250702</v>
+      </c>
+      <c r="B636" t="s">
+        <v>55</v>
+      </c>
+      <c r="C636" t="s">
+        <v>18</v>
+      </c>
+      <c r="D636">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>20250702</v>
+      </c>
+      <c r="B637" t="s">
+        <v>55</v>
+      </c>
+      <c r="C637" t="s">
+        <v>19</v>
+      </c>
+      <c r="D637">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>20250702</v>
+      </c>
+      <c r="B638" t="s">
+        <v>55</v>
+      </c>
+      <c r="C638" t="s">
+        <v>20</v>
+      </c>
+      <c r="D638">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>20250702</v>
+      </c>
+      <c r="B639" t="s">
+        <v>55</v>
+      </c>
+      <c r="C639" t="s">
+        <v>21</v>
+      </c>
+      <c r="D639">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>20250702</v>
+      </c>
+      <c r="B640" t="s">
+        <v>55</v>
+      </c>
+      <c r="C640" t="s">
+        <v>22</v>
+      </c>
+      <c r="D640">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>20250702</v>
+      </c>
+      <c r="B641" t="s">
+        <v>55</v>
+      </c>
+      <c r="C641" t="s">
+        <v>23</v>
+      </c>
+      <c r="D641">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>20250702</v>
+      </c>
+      <c r="B642" t="s">
+        <v>56</v>
+      </c>
+      <c r="C642" t="s">
+        <v>4</v>
+      </c>
+      <c r="D642">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>20250702</v>
+      </c>
+      <c r="B643" t="s">
+        <v>56</v>
+      </c>
+      <c r="C643" t="s">
+        <v>5</v>
+      </c>
+      <c r="D643">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>20250702</v>
+      </c>
+      <c r="B644" t="s">
+        <v>56</v>
+      </c>
+      <c r="C644" t="s">
+        <v>6</v>
+      </c>
+      <c r="D644">
+        <v>18.37</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>20250702</v>
+      </c>
+      <c r="B645" t="s">
+        <v>56</v>
+      </c>
+      <c r="C645" t="s">
+        <v>7</v>
+      </c>
+      <c r="D645">
+        <v>17.59</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>20250702</v>
+      </c>
+      <c r="B646" t="s">
+        <v>56</v>
+      </c>
+      <c r="C646" t="s">
+        <v>8</v>
+      </c>
+      <c r="D646">
+        <v>14.07</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>20250702</v>
+      </c>
+      <c r="B647" t="s">
+        <v>56</v>
+      </c>
+      <c r="C647" t="s">
+        <v>9</v>
+      </c>
+      <c r="D647">
+        <v>17.079999999999998</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>20250702</v>
+      </c>
+      <c r="B648" t="s">
+        <v>56</v>
+      </c>
+      <c r="C648" t="s">
+        <v>10</v>
+      </c>
+      <c r="D648">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>20250702</v>
+      </c>
+      <c r="B649" t="s">
+        <v>56</v>
+      </c>
+      <c r="C649" t="s">
+        <v>11</v>
+      </c>
+      <c r="D649">
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>20250702</v>
+      </c>
+      <c r="B650" t="s">
+        <v>56</v>
+      </c>
+      <c r="C650" t="s">
+        <v>12</v>
+      </c>
+      <c r="D650">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>20250702</v>
+      </c>
+      <c r="B651" t="s">
+        <v>56</v>
+      </c>
+      <c r="C651" t="s">
+        <v>13</v>
+      </c>
+      <c r="D651">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>20250702</v>
+      </c>
+      <c r="B652" t="s">
+        <v>56</v>
+      </c>
+      <c r="C652" t="s">
+        <v>14</v>
+      </c>
+      <c r="D652">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>20250702</v>
+      </c>
+      <c r="B653" t="s">
+        <v>56</v>
+      </c>
+      <c r="C653" t="s">
+        <v>15</v>
+      </c>
+      <c r="D653">
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>20250702</v>
+      </c>
+      <c r="B654" t="s">
+        <v>56</v>
+      </c>
+      <c r="C654" t="s">
+        <v>16</v>
+      </c>
+      <c r="D654">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>20250702</v>
+      </c>
+      <c r="B655" t="s">
+        <v>56</v>
+      </c>
+      <c r="C655" t="s">
+        <v>17</v>
+      </c>
+      <c r="D655">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>20250702</v>
+      </c>
+      <c r="B656" t="s">
+        <v>56</v>
+      </c>
+      <c r="C656" t="s">
+        <v>18</v>
+      </c>
+      <c r="D656">
+        <v>20.329999999999998</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>20250702</v>
+      </c>
+      <c r="B657" t="s">
+        <v>56</v>
+      </c>
+      <c r="C657" t="s">
+        <v>19</v>
+      </c>
+      <c r="D657">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>20250702</v>
+      </c>
+      <c r="B658" t="s">
+        <v>56</v>
+      </c>
+      <c r="C658" t="s">
+        <v>20</v>
+      </c>
+      <c r="D658">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>20250702</v>
+      </c>
+      <c r="B659" t="s">
+        <v>56</v>
+      </c>
+      <c r="C659" t="s">
+        <v>21</v>
+      </c>
+      <c r="D659">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>20250702</v>
+      </c>
+      <c r="B660" t="s">
+        <v>56</v>
+      </c>
+      <c r="C660" t="s">
+        <v>22</v>
+      </c>
+      <c r="D660">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>20250702</v>
+      </c>
+      <c r="B661" t="s">
+        <v>56</v>
+      </c>
+      <c r="C661" t="s">
+        <v>23</v>
+      </c>
+      <c r="D661">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>20250702</v>
+      </c>
+      <c r="B662" t="s">
+        <v>57</v>
+      </c>
+      <c r="C662" t="s">
+        <v>4</v>
+      </c>
+      <c r="D662">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>20250702</v>
+      </c>
+      <c r="B663" t="s">
+        <v>57</v>
+      </c>
+      <c r="C663" t="s">
+        <v>5</v>
+      </c>
+      <c r="D663">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>20250702</v>
+      </c>
+      <c r="B664" t="s">
+        <v>57</v>
+      </c>
+      <c r="C664" t="s">
+        <v>6</v>
+      </c>
+      <c r="D664">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>20250702</v>
+      </c>
+      <c r="B665" t="s">
+        <v>57</v>
+      </c>
+      <c r="C665" t="s">
+        <v>7</v>
+      </c>
+      <c r="D665">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>20250702</v>
+      </c>
+      <c r="B666" t="s">
+        <v>57</v>
+      </c>
+      <c r="C666" t="s">
+        <v>8</v>
+      </c>
+      <c r="D666">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>20250702</v>
+      </c>
+      <c r="B667" t="s">
+        <v>57</v>
+      </c>
+      <c r="C667" t="s">
+        <v>9</v>
+      </c>
+      <c r="D667">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>20250702</v>
+      </c>
+      <c r="B668" t="s">
+        <v>57</v>
+      </c>
+      <c r="C668" t="s">
+        <v>10</v>
+      </c>
+      <c r="D668">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>20250702</v>
+      </c>
+      <c r="B669" t="s">
+        <v>57</v>
+      </c>
+      <c r="C669" t="s">
+        <v>11</v>
+      </c>
+      <c r="D669">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>20250702</v>
+      </c>
+      <c r="B670" t="s">
+        <v>57</v>
+      </c>
+      <c r="C670" t="s">
+        <v>12</v>
+      </c>
+      <c r="D670">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>20250702</v>
+      </c>
+      <c r="B671" t="s">
+        <v>57</v>
+      </c>
+      <c r="C671" t="s">
+        <v>13</v>
+      </c>
+      <c r="D671">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>20250702</v>
+      </c>
+      <c r="B672" t="s">
+        <v>57</v>
+      </c>
+      <c r="C672" t="s">
+        <v>14</v>
+      </c>
+      <c r="D672">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>20250702</v>
+      </c>
+      <c r="B673" t="s">
+        <v>57</v>
+      </c>
+      <c r="C673" t="s">
+        <v>15</v>
+      </c>
+      <c r="D673">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>20250702</v>
+      </c>
+      <c r="B674" t="s">
+        <v>57</v>
+      </c>
+      <c r="C674" t="s">
+        <v>16</v>
+      </c>
+      <c r="D674">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>20250702</v>
+      </c>
+      <c r="B675" t="s">
+        <v>57</v>
+      </c>
+      <c r="C675" t="s">
+        <v>17</v>
+      </c>
+      <c r="D675">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>20250702</v>
+      </c>
+      <c r="B676" t="s">
+        <v>57</v>
+      </c>
+      <c r="C676" t="s">
+        <v>18</v>
+      </c>
+      <c r="D676">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>20250702</v>
+      </c>
+      <c r="B677" t="s">
+        <v>57</v>
+      </c>
+      <c r="C677" t="s">
+        <v>19</v>
+      </c>
+      <c r="D677">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>20250702</v>
+      </c>
+      <c r="B678" t="s">
+        <v>57</v>
+      </c>
+      <c r="C678" t="s">
+        <v>20</v>
+      </c>
+      <c r="D678">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>20250702</v>
+      </c>
+      <c r="B679" t="s">
+        <v>57</v>
+      </c>
+      <c r="C679" t="s">
+        <v>21</v>
+      </c>
+      <c r="D679">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>20250702</v>
+      </c>
+      <c r="B680" t="s">
+        <v>57</v>
+      </c>
+      <c r="C680" t="s">
+        <v>22</v>
+      </c>
+      <c r="D680">
+        <v>14.03</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>20250702</v>
+      </c>
+      <c r="B681" t="s">
+        <v>57</v>
+      </c>
+      <c r="C681" t="s">
+        <v>23</v>
+      </c>
+      <c r="D681">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>20250702</v>
+      </c>
+      <c r="B682" t="s">
+        <v>58</v>
+      </c>
+      <c r="C682" t="s">
+        <v>4</v>
+      </c>
+      <c r="D682">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>20250702</v>
+      </c>
+      <c r="B683" t="s">
+        <v>58</v>
+      </c>
+      <c r="C683" t="s">
+        <v>5</v>
+      </c>
+      <c r="D683">
+        <v>23.87</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>20250702</v>
+      </c>
+      <c r="B684" t="s">
+        <v>58</v>
+      </c>
+      <c r="C684" t="s">
+        <v>6</v>
+      </c>
+      <c r="D684">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>20250702</v>
+      </c>
+      <c r="B685" t="s">
+        <v>58</v>
+      </c>
+      <c r="C685" t="s">
+        <v>7</v>
+      </c>
+      <c r="D685">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>20250702</v>
+      </c>
+      <c r="B686" t="s">
+        <v>58</v>
+      </c>
+      <c r="C686" t="s">
+        <v>8</v>
+      </c>
+      <c r="D686">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>20250702</v>
+      </c>
+      <c r="B687" t="s">
+        <v>58</v>
+      </c>
+      <c r="C687" t="s">
+        <v>9</v>
+      </c>
+      <c r="D687">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>20250702</v>
+      </c>
+      <c r="B688" t="s">
+        <v>58</v>
+      </c>
+      <c r="C688" t="s">
+        <v>10</v>
+      </c>
+      <c r="D688">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>20250702</v>
+      </c>
+      <c r="B689" t="s">
+        <v>58</v>
+      </c>
+      <c r="C689" t="s">
+        <v>11</v>
+      </c>
+      <c r="D689">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>20250702</v>
+      </c>
+      <c r="B690" t="s">
+        <v>58</v>
+      </c>
+      <c r="C690" t="s">
+        <v>12</v>
+      </c>
+      <c r="D690">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>20250702</v>
+      </c>
+      <c r="B691" t="s">
+        <v>58</v>
+      </c>
+      <c r="C691" t="s">
+        <v>13</v>
+      </c>
+      <c r="D691">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>20250702</v>
+      </c>
+      <c r="B692" t="s">
+        <v>58</v>
+      </c>
+      <c r="C692" t="s">
+        <v>14</v>
+      </c>
+      <c r="D692">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>20250702</v>
+      </c>
+      <c r="B693" t="s">
+        <v>58</v>
+      </c>
+      <c r="C693" t="s">
+        <v>15</v>
+      </c>
+      <c r="D693">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>20250702</v>
+      </c>
+      <c r="B694" t="s">
+        <v>58</v>
+      </c>
+      <c r="C694" t="s">
+        <v>16</v>
+      </c>
+      <c r="D694">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>20250702</v>
+      </c>
+      <c r="B695" t="s">
+        <v>58</v>
+      </c>
+      <c r="C695" t="s">
+        <v>17</v>
+      </c>
+      <c r="D695">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>20250702</v>
+      </c>
+      <c r="B696" t="s">
+        <v>58</v>
+      </c>
+      <c r="C696" t="s">
+        <v>18</v>
+      </c>
+      <c r="D696">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>20250702</v>
+      </c>
+      <c r="B697" t="s">
+        <v>58</v>
+      </c>
+      <c r="C697" t="s">
+        <v>19</v>
+      </c>
+      <c r="D697">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>20250702</v>
+      </c>
+      <c r="B698" t="s">
+        <v>58</v>
+      </c>
+      <c r="C698" t="s">
+        <v>20</v>
+      </c>
+      <c r="D698">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>20250702</v>
+      </c>
+      <c r="B699" t="s">
+        <v>58</v>
+      </c>
+      <c r="C699" t="s">
+        <v>21</v>
+      </c>
+      <c r="D699">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>20250702</v>
+      </c>
+      <c r="B700" t="s">
+        <v>58</v>
+      </c>
+      <c r="C700" t="s">
+        <v>22</v>
+      </c>
+      <c r="D700">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>20250702</v>
+      </c>
+      <c r="B701" t="s">
+        <v>58</v>
+      </c>
+      <c r="C701" t="s">
+        <v>23</v>
+      </c>
+      <c r="D701">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>20250702</v>
+      </c>
+      <c r="B702" t="s">
+        <v>59</v>
+      </c>
+      <c r="C702" t="s">
+        <v>4</v>
+      </c>
+      <c r="D702">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>20250702</v>
+      </c>
+      <c r="B703" t="s">
+        <v>59</v>
+      </c>
+      <c r="C703" t="s">
+        <v>5</v>
+      </c>
+      <c r="D703">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>20250702</v>
+      </c>
+      <c r="B704" t="s">
+        <v>59</v>
+      </c>
+      <c r="C704" t="s">
+        <v>6</v>
+      </c>
+      <c r="D704">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>20250702</v>
+      </c>
+      <c r="B705" t="s">
+        <v>59</v>
+      </c>
+      <c r="C705" t="s">
+        <v>7</v>
+      </c>
+      <c r="D705">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>20250702</v>
+      </c>
+      <c r="B706" t="s">
+        <v>59</v>
+      </c>
+      <c r="C706" t="s">
+        <v>8</v>
+      </c>
+      <c r="D706">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>20250702</v>
+      </c>
+      <c r="B707" t="s">
+        <v>59</v>
+      </c>
+      <c r="C707" t="s">
+        <v>9</v>
+      </c>
+      <c r="D707">
+        <v>15.41</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>20250702</v>
+      </c>
+      <c r="B708" t="s">
+        <v>59</v>
+      </c>
+      <c r="C708" t="s">
+        <v>10</v>
+      </c>
+      <c r="D708">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>20250702</v>
+      </c>
+      <c r="B709" t="s">
+        <v>59</v>
+      </c>
+      <c r="C709" t="s">
+        <v>11</v>
+      </c>
+      <c r="D709">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>20250702</v>
+      </c>
+      <c r="B710" t="s">
+        <v>59</v>
+      </c>
+      <c r="C710" t="s">
+        <v>12</v>
+      </c>
+      <c r="D710">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>20250702</v>
+      </c>
+      <c r="B711" t="s">
+        <v>59</v>
+      </c>
+      <c r="C711" t="s">
+        <v>13</v>
+      </c>
+      <c r="D711">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>20250702</v>
+      </c>
+      <c r="B712" t="s">
+        <v>59</v>
+      </c>
+      <c r="C712" t="s">
+        <v>14</v>
+      </c>
+      <c r="D712">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>20250702</v>
+      </c>
+      <c r="B713" t="s">
+        <v>59</v>
+      </c>
+      <c r="C713" t="s">
+        <v>15</v>
+      </c>
+      <c r="D713">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>20250702</v>
+      </c>
+      <c r="B714" t="s">
+        <v>59</v>
+      </c>
+      <c r="C714" t="s">
+        <v>16</v>
+      </c>
+      <c r="D714">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>20250702</v>
+      </c>
+      <c r="B715" t="s">
+        <v>59</v>
+      </c>
+      <c r="C715" t="s">
+        <v>17</v>
+      </c>
+      <c r="D715">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>20250702</v>
+      </c>
+      <c r="B716" t="s">
+        <v>59</v>
+      </c>
+      <c r="C716" t="s">
+        <v>18</v>
+      </c>
+      <c r="D716">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>20250702</v>
+      </c>
+      <c r="B717" t="s">
+        <v>59</v>
+      </c>
+      <c r="C717" t="s">
+        <v>19</v>
+      </c>
+      <c r="D717">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>20250702</v>
+      </c>
+      <c r="B718" t="s">
+        <v>59</v>
+      </c>
+      <c r="C718" t="s">
+        <v>20</v>
+      </c>
+      <c r="D718">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>20250702</v>
+      </c>
+      <c r="B719" t="s">
+        <v>59</v>
+      </c>
+      <c r="C719" t="s">
+        <v>21</v>
+      </c>
+      <c r="D719">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>20250702</v>
+      </c>
+      <c r="B720" t="s">
+        <v>59</v>
+      </c>
+      <c r="C720" t="s">
+        <v>22</v>
+      </c>
+      <c r="D720">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>20250702</v>
+      </c>
+      <c r="B721" t="s">
+        <v>59</v>
+      </c>
+      <c r="C721" t="s">
+        <v>23</v>
+      </c>
+      <c r="D721">
+        <v>14.68</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>20250702</v>
+      </c>
+      <c r="B722" t="s">
+        <v>60</v>
+      </c>
+      <c r="C722" t="s">
+        <v>4</v>
+      </c>
+      <c r="D722">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>20250702</v>
+      </c>
+      <c r="B723" t="s">
+        <v>60</v>
+      </c>
+      <c r="C723" t="s">
+        <v>5</v>
+      </c>
+      <c r="D723">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>20250702</v>
+      </c>
+      <c r="B724" t="s">
+        <v>60</v>
+      </c>
+      <c r="C724" t="s">
+        <v>6</v>
+      </c>
+      <c r="D724">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>20250702</v>
+      </c>
+      <c r="B725" t="s">
+        <v>60</v>
+      </c>
+      <c r="C725" t="s">
+        <v>7</v>
+      </c>
+      <c r="D725">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>20250702</v>
+      </c>
+      <c r="B726" t="s">
+        <v>60</v>
+      </c>
+      <c r="C726" t="s">
+        <v>8</v>
+      </c>
+      <c r="D726">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>20250702</v>
+      </c>
+      <c r="B727" t="s">
+        <v>60</v>
+      </c>
+      <c r="C727" t="s">
+        <v>9</v>
+      </c>
+      <c r="D727">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>20250702</v>
+      </c>
+      <c r="B728" t="s">
+        <v>60</v>
+      </c>
+      <c r="C728" t="s">
+        <v>10</v>
+      </c>
+      <c r="D728">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>20250702</v>
+      </c>
+      <c r="B729" t="s">
+        <v>60</v>
+      </c>
+      <c r="C729" t="s">
+        <v>11</v>
+      </c>
+      <c r="D729">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>20250702</v>
+      </c>
+      <c r="B730" t="s">
+        <v>60</v>
+      </c>
+      <c r="C730" t="s">
+        <v>12</v>
+      </c>
+      <c r="D730">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>20250702</v>
+      </c>
+      <c r="B731" t="s">
+        <v>60</v>
+      </c>
+      <c r="C731" t="s">
+        <v>13</v>
+      </c>
+      <c r="D731">
+        <v>16.62</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>20250702</v>
+      </c>
+      <c r="B732" t="s">
+        <v>60</v>
+      </c>
+      <c r="C732" t="s">
+        <v>14</v>
+      </c>
+      <c r="D732">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>20250702</v>
+      </c>
+      <c r="B733" t="s">
+        <v>60</v>
+      </c>
+      <c r="C733" t="s">
+        <v>15</v>
+      </c>
+      <c r="D733">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>20250702</v>
+      </c>
+      <c r="B734" t="s">
+        <v>60</v>
+      </c>
+      <c r="C734" t="s">
+        <v>16</v>
+      </c>
+      <c r="D734">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>20250702</v>
+      </c>
+      <c r="B735" t="s">
+        <v>60</v>
+      </c>
+      <c r="C735" t="s">
+        <v>17</v>
+      </c>
+      <c r="D735">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>20250702</v>
+      </c>
+      <c r="B736" t="s">
+        <v>60</v>
+      </c>
+      <c r="C736" t="s">
+        <v>18</v>
+      </c>
+      <c r="D736">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>20250702</v>
+      </c>
+      <c r="B737" t="s">
+        <v>60</v>
+      </c>
+      <c r="C737" t="s">
+        <v>19</v>
+      </c>
+      <c r="D737">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>20250702</v>
+      </c>
+      <c r="B738" t="s">
+        <v>60</v>
+      </c>
+      <c r="C738" t="s">
+        <v>20</v>
+      </c>
+      <c r="D738">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>20250702</v>
+      </c>
+      <c r="B739" t="s">
+        <v>60</v>
+      </c>
+      <c r="C739" t="s">
+        <v>21</v>
+      </c>
+      <c r="D739">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>20250702</v>
+      </c>
+      <c r="B740" t="s">
+        <v>60</v>
+      </c>
+      <c r="C740" t="s">
+        <v>22</v>
+      </c>
+      <c r="D740">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>20250702</v>
+      </c>
+      <c r="B741" t="s">
+        <v>60</v>
+      </c>
+      <c r="C741" t="s">
+        <v>23</v>
+      </c>
+      <c r="D741">
+        <v>16.440000000000001</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>20250702</v>
+      </c>
+      <c r="B742" t="s">
+        <v>61</v>
+      </c>
+      <c r="C742" t="s">
+        <v>4</v>
+      </c>
+      <c r="D742">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>20250702</v>
+      </c>
+      <c r="B743" t="s">
+        <v>61</v>
+      </c>
+      <c r="C743" t="s">
+        <v>5</v>
+      </c>
+      <c r="D743">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>20250702</v>
+      </c>
+      <c r="B744" t="s">
+        <v>61</v>
+      </c>
+      <c r="C744" t="s">
+        <v>6</v>
+      </c>
+      <c r="D744">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>20250702</v>
+      </c>
+      <c r="B745" t="s">
+        <v>61</v>
+      </c>
+      <c r="C745" t="s">
+        <v>7</v>
+      </c>
+      <c r="D745">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>20250702</v>
+      </c>
+      <c r="B746" t="s">
+        <v>61</v>
+      </c>
+      <c r="C746" t="s">
+        <v>8</v>
+      </c>
+      <c r="D746">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>20250702</v>
+      </c>
+      <c r="B747" t="s">
+        <v>61</v>
+      </c>
+      <c r="C747" t="s">
+        <v>9</v>
+      </c>
+      <c r="D747">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>20250702</v>
+      </c>
+      <c r="B748" t="s">
+        <v>61</v>
+      </c>
+      <c r="C748" t="s">
+        <v>10</v>
+      </c>
+      <c r="D748">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>20250702</v>
+      </c>
+      <c r="B749" t="s">
+        <v>61</v>
+      </c>
+      <c r="C749" t="s">
+        <v>11</v>
+      </c>
+      <c r="D749">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>20250702</v>
+      </c>
+      <c r="B750" t="s">
+        <v>61</v>
+      </c>
+      <c r="C750" t="s">
+        <v>12</v>
+      </c>
+      <c r="D750">
+        <v>16.37</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>20250702</v>
+      </c>
+      <c r="B751" t="s">
+        <v>61</v>
+      </c>
+      <c r="C751" t="s">
+        <v>13</v>
+      </c>
+      <c r="D751">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>20250702</v>
+      </c>
+      <c r="B752" t="s">
+        <v>61</v>
+      </c>
+      <c r="C752" t="s">
+        <v>14</v>
+      </c>
+      <c r="D752">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>20250702</v>
+      </c>
+      <c r="B753" t="s">
+        <v>61</v>
+      </c>
+      <c r="C753" t="s">
+        <v>15</v>
+      </c>
+      <c r="D753">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>20250702</v>
+      </c>
+      <c r="B754" t="s">
+        <v>61</v>
+      </c>
+      <c r="C754" t="s">
+        <v>16</v>
+      </c>
+      <c r="D754">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>20250702</v>
+      </c>
+      <c r="B755" t="s">
+        <v>61</v>
+      </c>
+      <c r="C755" t="s">
+        <v>17</v>
+      </c>
+      <c r="D755">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>20250702</v>
+      </c>
+      <c r="B756" t="s">
+        <v>61</v>
+      </c>
+      <c r="C756" t="s">
+        <v>18</v>
+      </c>
+      <c r="D756">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>20250702</v>
+      </c>
+      <c r="B757" t="s">
+        <v>61</v>
+      </c>
+      <c r="C757" t="s">
+        <v>19</v>
+      </c>
+      <c r="D757">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>20250702</v>
+      </c>
+      <c r="B758" t="s">
+        <v>61</v>
+      </c>
+      <c r="C758" t="s">
+        <v>20</v>
+      </c>
+      <c r="D758">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>20250702</v>
+      </c>
+      <c r="B759" t="s">
+        <v>61</v>
+      </c>
+      <c r="C759" t="s">
+        <v>21</v>
+      </c>
+      <c r="D759">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>20250702</v>
+      </c>
+      <c r="B760" t="s">
+        <v>61</v>
+      </c>
+      <c r="C760" t="s">
+        <v>22</v>
+      </c>
+      <c r="D760">
+        <v>16.510000000000002</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>20250702</v>
+      </c>
+      <c r="B761" t="s">
+        <v>61</v>
+      </c>
+      <c r="C761" t="s">
+        <v>23</v>
+      </c>
+      <c r="D761">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>20250702</v>
+      </c>
+      <c r="B762" t="s">
+        <v>62</v>
+      </c>
+      <c r="C762" t="s">
+        <v>4</v>
+      </c>
+      <c r="D762">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>20250702</v>
+      </c>
+      <c r="B763" t="s">
+        <v>62</v>
+      </c>
+      <c r="C763" t="s">
+        <v>5</v>
+      </c>
+      <c r="D763">
+        <v>16.489999999999998</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>20250702</v>
+      </c>
+      <c r="B764" t="s">
+        <v>62</v>
+      </c>
+      <c r="C764" t="s">
+        <v>6</v>
+      </c>
+      <c r="D764">
+        <v>17.45</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>20250702</v>
+      </c>
+      <c r="B765" t="s">
+        <v>62</v>
+      </c>
+      <c r="C765" t="s">
+        <v>7</v>
+      </c>
+      <c r="D765">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>20250702</v>
+      </c>
+      <c r="B766" t="s">
+        <v>62</v>
+      </c>
+      <c r="C766" t="s">
+        <v>8</v>
+      </c>
+      <c r="D766">
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>20250702</v>
+      </c>
+      <c r="B767" t="s">
+        <v>62</v>
+      </c>
+      <c r="C767" t="s">
+        <v>9</v>
+      </c>
+      <c r="D767">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>20250702</v>
+      </c>
+      <c r="B768" t="s">
+        <v>62</v>
+      </c>
+      <c r="C768" t="s">
+        <v>10</v>
+      </c>
+      <c r="D768">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>20250702</v>
+      </c>
+      <c r="B769" t="s">
+        <v>62</v>
+      </c>
+      <c r="C769" t="s">
+        <v>11</v>
+      </c>
+      <c r="D769">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>20250702</v>
+      </c>
+      <c r="B770" t="s">
+        <v>62</v>
+      </c>
+      <c r="C770" t="s">
+        <v>12</v>
+      </c>
+      <c r="D770">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>20250702</v>
+      </c>
+      <c r="B771" t="s">
+        <v>62</v>
+      </c>
+      <c r="C771" t="s">
+        <v>13</v>
+      </c>
+      <c r="D771">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>20250702</v>
+      </c>
+      <c r="B772" t="s">
+        <v>62</v>
+      </c>
+      <c r="C772" t="s">
+        <v>14</v>
+      </c>
+      <c r="D772">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>20250702</v>
+      </c>
+      <c r="B773" t="s">
+        <v>62</v>
+      </c>
+      <c r="C773" t="s">
+        <v>15</v>
+      </c>
+      <c r="D773">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>20250702</v>
+      </c>
+      <c r="B774" t="s">
+        <v>62</v>
+      </c>
+      <c r="C774" t="s">
+        <v>16</v>
+      </c>
+      <c r="D774">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>20250702</v>
+      </c>
+      <c r="B775" t="s">
+        <v>62</v>
+      </c>
+      <c r="C775" t="s">
+        <v>17</v>
+      </c>
+      <c r="D775">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>20250702</v>
+      </c>
+      <c r="B776" t="s">
+        <v>62</v>
+      </c>
+      <c r="C776" t="s">
+        <v>18</v>
+      </c>
+      <c r="D776">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>20250702</v>
+      </c>
+      <c r="B777" t="s">
+        <v>62</v>
+      </c>
+      <c r="C777" t="s">
+        <v>19</v>
+      </c>
+      <c r="D777">
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>20250702</v>
+      </c>
+      <c r="B778" t="s">
+        <v>62</v>
+      </c>
+      <c r="C778" t="s">
+        <v>20</v>
+      </c>
+      <c r="D778">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>20250702</v>
+      </c>
+      <c r="B779" t="s">
+        <v>62</v>
+      </c>
+      <c r="C779" t="s">
+        <v>21</v>
+      </c>
+      <c r="D779">
+        <v>18.309999999999999</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>20250702</v>
+      </c>
+      <c r="B780" t="s">
+        <v>62</v>
+      </c>
+      <c r="C780" t="s">
+        <v>22</v>
+      </c>
+      <c r="D780">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>20250702</v>
+      </c>
+      <c r="B781" t="s">
+        <v>62</v>
+      </c>
+      <c r="C781" t="s">
+        <v>23</v>
+      </c>
+      <c r="D781">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>20250702</v>
+      </c>
+      <c r="B782" t="s">
+        <v>63</v>
+      </c>
+      <c r="C782" t="s">
+        <v>4</v>
+      </c>
+      <c r="D782">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>20250702</v>
+      </c>
+      <c r="B783" t="s">
+        <v>63</v>
+      </c>
+      <c r="C783" t="s">
+        <v>5</v>
+      </c>
+      <c r="D783">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>20250702</v>
+      </c>
+      <c r="B784" t="s">
+        <v>63</v>
+      </c>
+      <c r="C784" t="s">
+        <v>6</v>
+      </c>
+      <c r="D784">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>20250702</v>
+      </c>
+      <c r="B785" t="s">
+        <v>63</v>
+      </c>
+      <c r="C785" t="s">
+        <v>7</v>
+      </c>
+      <c r="D785">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>20250702</v>
+      </c>
+      <c r="B786" t="s">
+        <v>63</v>
+      </c>
+      <c r="C786" t="s">
+        <v>8</v>
+      </c>
+      <c r="D786">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>20250702</v>
+      </c>
+      <c r="B787" t="s">
+        <v>63</v>
+      </c>
+      <c r="C787" t="s">
+        <v>9</v>
+      </c>
+      <c r="D787">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>20250702</v>
+      </c>
+      <c r="B788" t="s">
+        <v>63</v>
+      </c>
+      <c r="C788" t="s">
+        <v>10</v>
+      </c>
+      <c r="D788">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>20250702</v>
+      </c>
+      <c r="B789" t="s">
+        <v>63</v>
+      </c>
+      <c r="C789" t="s">
+        <v>11</v>
+      </c>
+      <c r="D789">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>20250702</v>
+      </c>
+      <c r="B790" t="s">
+        <v>63</v>
+      </c>
+      <c r="C790" t="s">
+        <v>12</v>
+      </c>
+      <c r="D790">
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>20250702</v>
+      </c>
+      <c r="B791" t="s">
+        <v>63</v>
+      </c>
+      <c r="C791" t="s">
+        <v>13</v>
+      </c>
+      <c r="D791">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>20250702</v>
+      </c>
+      <c r="B792" t="s">
+        <v>63</v>
+      </c>
+      <c r="C792" t="s">
+        <v>14</v>
+      </c>
+      <c r="D792">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>20250702</v>
+      </c>
+      <c r="B793" t="s">
+        <v>63</v>
+      </c>
+      <c r="C793" t="s">
+        <v>15</v>
+      </c>
+      <c r="D793">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>20250702</v>
+      </c>
+      <c r="B794" t="s">
+        <v>63</v>
+      </c>
+      <c r="C794" t="s">
+        <v>16</v>
+      </c>
+      <c r="D794">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>20250702</v>
+      </c>
+      <c r="B795" t="s">
+        <v>63</v>
+      </c>
+      <c r="C795" t="s">
+        <v>17</v>
+      </c>
+      <c r="D795">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>20250702</v>
+      </c>
+      <c r="B796" t="s">
+        <v>63</v>
+      </c>
+      <c r="C796" t="s">
+        <v>18</v>
+      </c>
+      <c r="D796">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>20250702</v>
+      </c>
+      <c r="B797" t="s">
+        <v>63</v>
+      </c>
+      <c r="C797" t="s">
+        <v>19</v>
+      </c>
+      <c r="D797">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>20250702</v>
+      </c>
+      <c r="B798" t="s">
+        <v>63</v>
+      </c>
+      <c r="C798" t="s">
+        <v>20</v>
+      </c>
+      <c r="D798">
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>20250702</v>
+      </c>
+      <c r="B799" t="s">
+        <v>63</v>
+      </c>
+      <c r="C799" t="s">
+        <v>21</v>
+      </c>
+      <c r="D799">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>20250702</v>
+      </c>
+      <c r="B800" t="s">
+        <v>63</v>
+      </c>
+      <c r="C800" t="s">
+        <v>22</v>
+      </c>
+      <c r="D800">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>20250702</v>
+      </c>
+      <c r="B801" t="s">
+        <v>63</v>
+      </c>
+      <c r="C801" t="s">
+        <v>23</v>
+      </c>
+      <c r="D801">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>20250702</v>
+      </c>
+      <c r="B802" t="s">
+        <v>64</v>
+      </c>
+      <c r="C802" t="s">
+        <v>4</v>
+      </c>
+      <c r="D802">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>20250702</v>
+      </c>
+      <c r="B803" t="s">
+        <v>64</v>
+      </c>
+      <c r="C803" t="s">
+        <v>5</v>
+      </c>
+      <c r="D803">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>20250702</v>
+      </c>
+      <c r="B804" t="s">
+        <v>64</v>
+      </c>
+      <c r="C804" t="s">
+        <v>6</v>
+      </c>
+      <c r="D804">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>20250702</v>
+      </c>
+      <c r="B805" t="s">
+        <v>64</v>
+      </c>
+      <c r="C805" t="s">
+        <v>7</v>
+      </c>
+      <c r="D805">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>20250702</v>
+      </c>
+      <c r="B806" t="s">
+        <v>64</v>
+      </c>
+      <c r="C806" t="s">
+        <v>8</v>
+      </c>
+      <c r="D806">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>20250702</v>
+      </c>
+      <c r="B807" t="s">
+        <v>64</v>
+      </c>
+      <c r="C807" t="s">
+        <v>9</v>
+      </c>
+      <c r="D807">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>20250702</v>
+      </c>
+      <c r="B808" t="s">
+        <v>64</v>
+      </c>
+      <c r="C808" t="s">
+        <v>10</v>
+      </c>
+      <c r="D808">
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>20250702</v>
+      </c>
+      <c r="B809" t="s">
+        <v>64</v>
+      </c>
+      <c r="C809" t="s">
+        <v>11</v>
+      </c>
+      <c r="D809">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>20250702</v>
+      </c>
+      <c r="B810" t="s">
+        <v>64</v>
+      </c>
+      <c r="C810" t="s">
+        <v>12</v>
+      </c>
+      <c r="D810">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>20250702</v>
+      </c>
+      <c r="B811" t="s">
+        <v>64</v>
+      </c>
+      <c r="C811" t="s">
+        <v>13</v>
+      </c>
+      <c r="D811">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>20250702</v>
+      </c>
+      <c r="B812" t="s">
+        <v>64</v>
+      </c>
+      <c r="C812" t="s">
+        <v>14</v>
+      </c>
+      <c r="D812">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>20250702</v>
+      </c>
+      <c r="B813" t="s">
+        <v>64</v>
+      </c>
+      <c r="C813" t="s">
+        <v>15</v>
+      </c>
+      <c r="D813">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>20250702</v>
+      </c>
+      <c r="B814" t="s">
+        <v>64</v>
+      </c>
+      <c r="C814" t="s">
+        <v>16</v>
+      </c>
+      <c r="D814">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>20250702</v>
+      </c>
+      <c r="B815" t="s">
+        <v>64</v>
+      </c>
+      <c r="C815" t="s">
+        <v>17</v>
+      </c>
+      <c r="D815">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>20250702</v>
+      </c>
+      <c r="B816" t="s">
+        <v>64</v>
+      </c>
+      <c r="C816" t="s">
+        <v>18</v>
+      </c>
+      <c r="D816">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>20250702</v>
+      </c>
+      <c r="B817" t="s">
+        <v>64</v>
+      </c>
+      <c r="C817" t="s">
+        <v>19</v>
+      </c>
+      <c r="D817">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>20250702</v>
+      </c>
+      <c r="B818" t="s">
+        <v>64</v>
+      </c>
+      <c r="C818" t="s">
+        <v>20</v>
+      </c>
+      <c r="D818">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>20250702</v>
+      </c>
+      <c r="B819" t="s">
+        <v>64</v>
+      </c>
+      <c r="C819" t="s">
+        <v>21</v>
+      </c>
+      <c r="D819">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>20250702</v>
+      </c>
+      <c r="B820" t="s">
+        <v>64</v>
+      </c>
+      <c r="C820" t="s">
+        <v>22</v>
+      </c>
+      <c r="D820">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>20250702</v>
+      </c>
+      <c r="B821" t="s">
+        <v>64</v>
+      </c>
+      <c r="C821" t="s">
+        <v>23</v>
+      </c>
+      <c r="D821">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>20250702</v>
+      </c>
+      <c r="B822" t="s">
+        <v>65</v>
+      </c>
+      <c r="C822" t="s">
+        <v>4</v>
+      </c>
+      <c r="D822">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>20250702</v>
+      </c>
+      <c r="B823" t="s">
+        <v>65</v>
+      </c>
+      <c r="C823" t="s">
+        <v>5</v>
+      </c>
+      <c r="D823">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>20250702</v>
+      </c>
+      <c r="B824" t="s">
+        <v>65</v>
+      </c>
+      <c r="C824" t="s">
+        <v>6</v>
+      </c>
+      <c r="D824">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>20250702</v>
+      </c>
+      <c r="B825" t="s">
+        <v>65</v>
+      </c>
+      <c r="C825" t="s">
+        <v>7</v>
+      </c>
+      <c r="D825">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>20250702</v>
+      </c>
+      <c r="B826" t="s">
+        <v>65</v>
+      </c>
+      <c r="C826" t="s">
+        <v>8</v>
+      </c>
+      <c r="D826">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>20250702</v>
+      </c>
+      <c r="B827" t="s">
+        <v>65</v>
+      </c>
+      <c r="C827" t="s">
+        <v>9</v>
+      </c>
+      <c r="D827">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>20250702</v>
+      </c>
+      <c r="B828" t="s">
+        <v>65</v>
+      </c>
+      <c r="C828" t="s">
+        <v>10</v>
+      </c>
+      <c r="D828">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>20250702</v>
+      </c>
+      <c r="B829" t="s">
+        <v>65</v>
+      </c>
+      <c r="C829" t="s">
+        <v>11</v>
+      </c>
+      <c r="D829">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>20250702</v>
+      </c>
+      <c r="B830" t="s">
+        <v>65</v>
+      </c>
+      <c r="C830" t="s">
+        <v>12</v>
+      </c>
+      <c r="D830">
+        <v>15.24</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>20250702</v>
+      </c>
+      <c r="B831" t="s">
+        <v>65</v>
+      </c>
+      <c r="C831" t="s">
+        <v>13</v>
+      </c>
+      <c r="D831">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>20250702</v>
+      </c>
+      <c r="B832" t="s">
+        <v>65</v>
+      </c>
+      <c r="C832" t="s">
+        <v>14</v>
+      </c>
+      <c r="D832">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>20250702</v>
+      </c>
+      <c r="B833" t="s">
+        <v>65</v>
+      </c>
+      <c r="C833" t="s">
+        <v>15</v>
+      </c>
+      <c r="D833">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>20250702</v>
+      </c>
+      <c r="B834" t="s">
+        <v>65</v>
+      </c>
+      <c r="C834" t="s">
+        <v>16</v>
+      </c>
+      <c r="D834">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>20250702</v>
+      </c>
+      <c r="B835" t="s">
+        <v>65</v>
+      </c>
+      <c r="C835" t="s">
+        <v>17</v>
+      </c>
+      <c r="D835">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>20250702</v>
+      </c>
+      <c r="B836" t="s">
+        <v>65</v>
+      </c>
+      <c r="C836" t="s">
+        <v>18</v>
+      </c>
+      <c r="D836">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>20250702</v>
+      </c>
+      <c r="B837" t="s">
+        <v>65</v>
+      </c>
+      <c r="C837" t="s">
+        <v>19</v>
+      </c>
+      <c r="D837">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>20250702</v>
+      </c>
+      <c r="B838" t="s">
+        <v>65</v>
+      </c>
+      <c r="C838" t="s">
+        <v>20</v>
+      </c>
+      <c r="D838">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>20250702</v>
+      </c>
+      <c r="B839" t="s">
+        <v>65</v>
+      </c>
+      <c r="C839" t="s">
+        <v>21</v>
+      </c>
+      <c r="D839">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>20250702</v>
+      </c>
+      <c r="B840" t="s">
+        <v>65</v>
+      </c>
+      <c r="C840" t="s">
+        <v>22</v>
+      </c>
+      <c r="D840">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>20250702</v>
+      </c>
+      <c r="B841" t="s">
+        <v>65</v>
+      </c>
+      <c r="C841" t="s">
+        <v>23</v>
+      </c>
+      <c r="D841">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>20250702</v>
+      </c>
+      <c r="B842" t="s">
+        <v>66</v>
+      </c>
+      <c r="C842" t="s">
+        <v>4</v>
+      </c>
+      <c r="D842">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>20250702</v>
+      </c>
+      <c r="B843" t="s">
+        <v>66</v>
+      </c>
+      <c r="C843" t="s">
+        <v>5</v>
+      </c>
+      <c r="D843">
+        <v>18.82</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>20250702</v>
+      </c>
+      <c r="B844" t="s">
+        <v>66</v>
+      </c>
+      <c r="C844" t="s">
+        <v>6</v>
+      </c>
+      <c r="D844">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>20250702</v>
+      </c>
+      <c r="B845" t="s">
+        <v>66</v>
+      </c>
+      <c r="C845" t="s">
+        <v>7</v>
+      </c>
+      <c r="D845">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>20250702</v>
+      </c>
+      <c r="B846" t="s">
+        <v>66</v>
+      </c>
+      <c r="C846" t="s">
+        <v>8</v>
+      </c>
+      <c r="D846">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>20250702</v>
+      </c>
+      <c r="B847" t="s">
+        <v>66</v>
+      </c>
+      <c r="C847" t="s">
+        <v>9</v>
+      </c>
+      <c r="D847">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>20250702</v>
+      </c>
+      <c r="B848" t="s">
+        <v>66</v>
+      </c>
+      <c r="C848" t="s">
+        <v>10</v>
+      </c>
+      <c r="D848">
+        <v>17.489999999999998</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>20250702</v>
+      </c>
+      <c r="B849" t="s">
+        <v>66</v>
+      </c>
+      <c r="C849" t="s">
+        <v>11</v>
+      </c>
+      <c r="D849">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>20250702</v>
+      </c>
+      <c r="B850" t="s">
+        <v>66</v>
+      </c>
+      <c r="C850" t="s">
+        <v>12</v>
+      </c>
+      <c r="D850">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>20250702</v>
+      </c>
+      <c r="B851" t="s">
+        <v>66</v>
+      </c>
+      <c r="C851" t="s">
+        <v>13</v>
+      </c>
+      <c r="D851">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>20250702</v>
+      </c>
+      <c r="B852" t="s">
+        <v>66</v>
+      </c>
+      <c r="C852" t="s">
+        <v>14</v>
+      </c>
+      <c r="D852">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>20250702</v>
+      </c>
+      <c r="B853" t="s">
+        <v>66</v>
+      </c>
+      <c r="C853" t="s">
+        <v>15</v>
+      </c>
+      <c r="D853">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>20250702</v>
+      </c>
+      <c r="B854" t="s">
+        <v>66</v>
+      </c>
+      <c r="C854" t="s">
+        <v>16</v>
+      </c>
+      <c r="D854">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>20250702</v>
+      </c>
+      <c r="B855" t="s">
+        <v>66</v>
+      </c>
+      <c r="C855" t="s">
+        <v>17</v>
+      </c>
+      <c r="D855">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>20250702</v>
+      </c>
+      <c r="B856" t="s">
+        <v>66</v>
+      </c>
+      <c r="C856" t="s">
+        <v>18</v>
+      </c>
+      <c r="D856">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>20250702</v>
+      </c>
+      <c r="B857" t="s">
+        <v>66</v>
+      </c>
+      <c r="C857" t="s">
+        <v>19</v>
+      </c>
+      <c r="D857">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>20250702</v>
+      </c>
+      <c r="B858" t="s">
+        <v>66</v>
+      </c>
+      <c r="C858" t="s">
+        <v>20</v>
+      </c>
+      <c r="D858">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>20250702</v>
+      </c>
+      <c r="B859" t="s">
+        <v>66</v>
+      </c>
+      <c r="C859" t="s">
+        <v>21</v>
+      </c>
+      <c r="D859">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>20250702</v>
+      </c>
+      <c r="B860" t="s">
+        <v>66</v>
+      </c>
+      <c r="C860" t="s">
+        <v>22</v>
+      </c>
+      <c r="D860">
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>20250702</v>
+      </c>
+      <c r="B861" t="s">
+        <v>66</v>
+      </c>
+      <c r="C861" t="s">
+        <v>23</v>
+      </c>
+      <c r="D861">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>20250702</v>
+      </c>
+      <c r="B862" t="s">
+        <v>67</v>
+      </c>
+      <c r="C862" t="s">
+        <v>4</v>
+      </c>
+      <c r="D862">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>20250702</v>
+      </c>
+      <c r="B863" t="s">
+        <v>67</v>
+      </c>
+      <c r="C863" t="s">
+        <v>5</v>
+      </c>
+      <c r="D863">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>20250702</v>
+      </c>
+      <c r="B864" t="s">
+        <v>67</v>
+      </c>
+      <c r="C864" t="s">
+        <v>6</v>
+      </c>
+      <c r="D864">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>20250702</v>
+      </c>
+      <c r="B865" t="s">
+        <v>67</v>
+      </c>
+      <c r="C865" t="s">
+        <v>7</v>
+      </c>
+      <c r="D865">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>20250702</v>
+      </c>
+      <c r="B866" t="s">
+        <v>67</v>
+      </c>
+      <c r="C866" t="s">
+        <v>8</v>
+      </c>
+      <c r="D866">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>20250702</v>
+      </c>
+      <c r="B867" t="s">
+        <v>67</v>
+      </c>
+      <c r="C867" t="s">
+        <v>9</v>
+      </c>
+      <c r="D867">
+        <v>16.079999999999998</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>20250702</v>
+      </c>
+      <c r="B868" t="s">
+        <v>67</v>
+      </c>
+      <c r="C868" t="s">
+        <v>10</v>
+      </c>
+      <c r="D868">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>20250702</v>
+      </c>
+      <c r="B869" t="s">
+        <v>67</v>
+      </c>
+      <c r="C869" t="s">
+        <v>11</v>
+      </c>
+      <c r="D869">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>20250702</v>
+      </c>
+      <c r="B870" t="s">
+        <v>67</v>
+      </c>
+      <c r="C870" t="s">
+        <v>12</v>
+      </c>
+      <c r="D870">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>20250702</v>
+      </c>
+      <c r="B871" t="s">
+        <v>67</v>
+      </c>
+      <c r="C871" t="s">
+        <v>13</v>
+      </c>
+      <c r="D871">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>20250702</v>
+      </c>
+      <c r="B872" t="s">
+        <v>67</v>
+      </c>
+      <c r="C872" t="s">
+        <v>14</v>
+      </c>
+      <c r="D872">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>20250702</v>
+      </c>
+      <c r="B873" t="s">
+        <v>67</v>
+      </c>
+      <c r="C873" t="s">
+        <v>15</v>
+      </c>
+      <c r="D873">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>20250702</v>
+      </c>
+      <c r="B874" t="s">
+        <v>67</v>
+      </c>
+      <c r="C874" t="s">
+        <v>16</v>
+      </c>
+      <c r="D874">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>20250702</v>
+      </c>
+      <c r="B875" t="s">
+        <v>67</v>
+      </c>
+      <c r="C875" t="s">
+        <v>17</v>
+      </c>
+      <c r="D875">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>20250702</v>
+      </c>
+      <c r="B876" t="s">
+        <v>67</v>
+      </c>
+      <c r="C876" t="s">
+        <v>18</v>
+      </c>
+      <c r="D876">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>20250702</v>
+      </c>
+      <c r="B877" t="s">
+        <v>67</v>
+      </c>
+      <c r="C877" t="s">
+        <v>19</v>
+      </c>
+      <c r="D877">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>20250702</v>
+      </c>
+      <c r="B878" t="s">
+        <v>67</v>
+      </c>
+      <c r="C878" t="s">
+        <v>20</v>
+      </c>
+      <c r="D878">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>20250702</v>
+      </c>
+      <c r="B879" t="s">
+        <v>67</v>
+      </c>
+      <c r="C879" t="s">
+        <v>21</v>
+      </c>
+      <c r="D879">
+        <v>18.079999999999998</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>20250702</v>
+      </c>
+      <c r="B880" t="s">
+        <v>67</v>
+      </c>
+      <c r="C880" t="s">
+        <v>22</v>
+      </c>
+      <c r="D880">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>20250702</v>
+      </c>
+      <c r="B881" t="s">
+        <v>67</v>
+      </c>
+      <c r="C881" t="s">
+        <v>23</v>
+      </c>
+      <c r="D881">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>20250702</v>
+      </c>
+      <c r="B882" t="s">
+        <v>68</v>
+      </c>
+      <c r="C882" t="s">
+        <v>4</v>
+      </c>
+      <c r="D882">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>20250702</v>
+      </c>
+      <c r="B883" t="s">
+        <v>68</v>
+      </c>
+      <c r="C883" t="s">
+        <v>5</v>
+      </c>
+      <c r="D883">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>20250702</v>
+      </c>
+      <c r="B884" t="s">
+        <v>68</v>
+      </c>
+      <c r="C884" t="s">
+        <v>6</v>
+      </c>
+      <c r="D884">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>20250702</v>
+      </c>
+      <c r="B885" t="s">
+        <v>68</v>
+      </c>
+      <c r="C885" t="s">
+        <v>7</v>
+      </c>
+      <c r="D885">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>20250702</v>
+      </c>
+      <c r="B886" t="s">
+        <v>68</v>
+      </c>
+      <c r="C886" t="s">
+        <v>8</v>
+      </c>
+      <c r="D886">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>20250702</v>
+      </c>
+      <c r="B887" t="s">
+        <v>68</v>
+      </c>
+      <c r="C887" t="s">
+        <v>9</v>
+      </c>
+      <c r="D887">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>20250702</v>
+      </c>
+      <c r="B888" t="s">
+        <v>68</v>
+      </c>
+      <c r="C888" t="s">
+        <v>10</v>
+      </c>
+      <c r="D888">
+        <v>13.52</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>20250702</v>
+      </c>
+      <c r="B889" t="s">
+        <v>68</v>
+      </c>
+      <c r="C889" t="s">
+        <v>11</v>
+      </c>
+      <c r="D889">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>20250702</v>
+      </c>
+      <c r="B890" t="s">
+        <v>68</v>
+      </c>
+      <c r="C890" t="s">
+        <v>12</v>
+      </c>
+      <c r="D890">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>20250702</v>
+      </c>
+      <c r="B891" t="s">
+        <v>68</v>
+      </c>
+      <c r="C891" t="s">
+        <v>13</v>
+      </c>
+      <c r="D891">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>20250702</v>
+      </c>
+      <c r="B892" t="s">
+        <v>68</v>
+      </c>
+      <c r="C892" t="s">
+        <v>14</v>
+      </c>
+      <c r="D892">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>20250702</v>
+      </c>
+      <c r="B893" t="s">
+        <v>68</v>
+      </c>
+      <c r="C893" t="s">
+        <v>15</v>
+      </c>
+      <c r="D893">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>20250702</v>
+      </c>
+      <c r="B894" t="s">
+        <v>68</v>
+      </c>
+      <c r="C894" t="s">
+        <v>16</v>
+      </c>
+      <c r="D894">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>20250702</v>
+      </c>
+      <c r="B895" t="s">
+        <v>68</v>
+      </c>
+      <c r="C895" t="s">
+        <v>17</v>
+      </c>
+      <c r="D895">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>20250702</v>
+      </c>
+      <c r="B896" t="s">
+        <v>68</v>
+      </c>
+      <c r="C896" t="s">
+        <v>18</v>
+      </c>
+      <c r="D896">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>20250702</v>
+      </c>
+      <c r="B897" t="s">
+        <v>68</v>
+      </c>
+      <c r="C897" t="s">
+        <v>19</v>
+      </c>
+      <c r="D897">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>20250702</v>
+      </c>
+      <c r="B898" t="s">
+        <v>68</v>
+      </c>
+      <c r="C898" t="s">
+        <v>20</v>
+      </c>
+      <c r="D898">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>20250702</v>
+      </c>
+      <c r="B899" t="s">
+        <v>68</v>
+      </c>
+      <c r="C899" t="s">
+        <v>21</v>
+      </c>
+      <c r="D899">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>20250702</v>
+      </c>
+      <c r="B900" t="s">
+        <v>68</v>
+      </c>
+      <c r="C900" t="s">
+        <v>22</v>
+      </c>
+      <c r="D900">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>20250702</v>
+      </c>
+      <c r="B901" t="s">
+        <v>68</v>
+      </c>
+      <c r="C901" t="s">
+        <v>23</v>
+      </c>
+      <c r="D901">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>20250702</v>
+      </c>
+      <c r="B902" t="s">
+        <v>69</v>
+      </c>
+      <c r="C902" t="s">
+        <v>4</v>
+      </c>
+      <c r="D902">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>20250702</v>
+      </c>
+      <c r="B903" t="s">
+        <v>69</v>
+      </c>
+      <c r="C903" t="s">
+        <v>5</v>
+      </c>
+      <c r="D903">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>20250702</v>
+      </c>
+      <c r="B904" t="s">
+        <v>69</v>
+      </c>
+      <c r="C904" t="s">
+        <v>6</v>
+      </c>
+      <c r="D904">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>20250702</v>
+      </c>
+      <c r="B905" t="s">
+        <v>69</v>
+      </c>
+      <c r="C905" t="s">
+        <v>7</v>
+      </c>
+      <c r="D905">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>20250702</v>
+      </c>
+      <c r="B906" t="s">
+        <v>69</v>
+      </c>
+      <c r="C906" t="s">
+        <v>8</v>
+      </c>
+      <c r="D906">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>20250702</v>
+      </c>
+      <c r="B907" t="s">
+        <v>69</v>
+      </c>
+      <c r="C907" t="s">
+        <v>9</v>
+      </c>
+      <c r="D907">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>20250702</v>
+      </c>
+      <c r="B908" t="s">
+        <v>69</v>
+      </c>
+      <c r="C908" t="s">
+        <v>10</v>
+      </c>
+      <c r="D908">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>20250702</v>
+      </c>
+      <c r="B909" t="s">
+        <v>69</v>
+      </c>
+      <c r="C909" t="s">
+        <v>11</v>
+      </c>
+      <c r="D909">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>20250702</v>
+      </c>
+      <c r="B910" t="s">
+        <v>69</v>
+      </c>
+      <c r="C910" t="s">
+        <v>12</v>
+      </c>
+      <c r="D910">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>20250702</v>
+      </c>
+      <c r="B911" t="s">
+        <v>69</v>
+      </c>
+      <c r="C911" t="s">
+        <v>13</v>
+      </c>
+      <c r="D911">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>20250702</v>
+      </c>
+      <c r="B912" t="s">
+        <v>69</v>
+      </c>
+      <c r="C912" t="s">
+        <v>14</v>
+      </c>
+      <c r="D912">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>20250702</v>
+      </c>
+      <c r="B913" t="s">
+        <v>69</v>
+      </c>
+      <c r="C913" t="s">
+        <v>15</v>
+      </c>
+      <c r="D913">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>20250702</v>
+      </c>
+      <c r="B914" t="s">
+        <v>69</v>
+      </c>
+      <c r="C914" t="s">
+        <v>16</v>
+      </c>
+      <c r="D914">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>20250702</v>
+      </c>
+      <c r="B915" t="s">
+        <v>69</v>
+      </c>
+      <c r="C915" t="s">
+        <v>17</v>
+      </c>
+      <c r="D915">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>20250702</v>
+      </c>
+      <c r="B916" t="s">
+        <v>69</v>
+      </c>
+      <c r="C916" t="s">
+        <v>18</v>
+      </c>
+      <c r="D916">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>20250702</v>
+      </c>
+      <c r="B917" t="s">
+        <v>69</v>
+      </c>
+      <c r="C917" t="s">
+        <v>19</v>
+      </c>
+      <c r="D917">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>20250702</v>
+      </c>
+      <c r="B918" t="s">
+        <v>69</v>
+      </c>
+      <c r="C918" t="s">
+        <v>20</v>
+      </c>
+      <c r="D918">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>20250702</v>
+      </c>
+      <c r="B919" t="s">
+        <v>69</v>
+      </c>
+      <c r="C919" t="s">
+        <v>21</v>
+      </c>
+      <c r="D919">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>20250702</v>
+      </c>
+      <c r="B920" t="s">
+        <v>69</v>
+      </c>
+      <c r="C920" t="s">
+        <v>22</v>
+      </c>
+      <c r="D920">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <v>20250702</v>
+      </c>
+      <c r="B921" t="s">
+        <v>69</v>
+      </c>
+      <c r="C921" t="s">
+        <v>23</v>
+      </c>
+      <c r="D921">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <v>20250702</v>
+      </c>
+      <c r="B922" t="s">
+        <v>70</v>
+      </c>
+      <c r="C922" t="s">
+        <v>4</v>
+      </c>
+      <c r="D922">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <v>20250702</v>
+      </c>
+      <c r="B923" t="s">
+        <v>70</v>
+      </c>
+      <c r="C923" t="s">
+        <v>5</v>
+      </c>
+      <c r="D923">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <v>20250702</v>
+      </c>
+      <c r="B924" t="s">
+        <v>70</v>
+      </c>
+      <c r="C924" t="s">
+        <v>6</v>
+      </c>
+      <c r="D924">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <v>20250702</v>
+      </c>
+      <c r="B925" t="s">
+        <v>70</v>
+      </c>
+      <c r="C925" t="s">
+        <v>7</v>
+      </c>
+      <c r="D925">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <v>20250702</v>
+      </c>
+      <c r="B926" t="s">
+        <v>70</v>
+      </c>
+      <c r="C926" t="s">
+        <v>8</v>
+      </c>
+      <c r="D926">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <v>20250702</v>
+      </c>
+      <c r="B927" t="s">
+        <v>70</v>
+      </c>
+      <c r="C927" t="s">
+        <v>9</v>
+      </c>
+      <c r="D927">
+        <v>14.87</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <v>20250702</v>
+      </c>
+      <c r="B928" t="s">
+        <v>70</v>
+      </c>
+      <c r="C928" t="s">
+        <v>10</v>
+      </c>
+      <c r="D928">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <v>20250702</v>
+      </c>
+      <c r="B929" t="s">
+        <v>70</v>
+      </c>
+      <c r="C929" t="s">
+        <v>11</v>
+      </c>
+      <c r="D929">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <v>20250702</v>
+      </c>
+      <c r="B930" t="s">
+        <v>70</v>
+      </c>
+      <c r="C930" t="s">
+        <v>12</v>
+      </c>
+      <c r="D930">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>20250702</v>
+      </c>
+      <c r="B931" t="s">
+        <v>70</v>
+      </c>
+      <c r="C931" t="s">
+        <v>13</v>
+      </c>
+      <c r="D931">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>20250702</v>
+      </c>
+      <c r="B932" t="s">
+        <v>70</v>
+      </c>
+      <c r="C932" t="s">
+        <v>14</v>
+      </c>
+      <c r="D932">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>20250702</v>
+      </c>
+      <c r="B933" t="s">
+        <v>70</v>
+      </c>
+      <c r="C933" t="s">
+        <v>15</v>
+      </c>
+      <c r="D933">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>20250702</v>
+      </c>
+      <c r="B934" t="s">
+        <v>70</v>
+      </c>
+      <c r="C934" t="s">
+        <v>16</v>
+      </c>
+      <c r="D934">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>20250702</v>
+      </c>
+      <c r="B935" t="s">
+        <v>70</v>
+      </c>
+      <c r="C935" t="s">
+        <v>17</v>
+      </c>
+      <c r="D935">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>20250702</v>
+      </c>
+      <c r="B936" t="s">
+        <v>70</v>
+      </c>
+      <c r="C936" t="s">
+        <v>18</v>
+      </c>
+      <c r="D936">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>20250702</v>
+      </c>
+      <c r="B937" t="s">
+        <v>70</v>
+      </c>
+      <c r="C937" t="s">
+        <v>19</v>
+      </c>
+      <c r="D937">
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>20250702</v>
+      </c>
+      <c r="B938" t="s">
+        <v>70</v>
+      </c>
+      <c r="C938" t="s">
+        <v>20</v>
+      </c>
+      <c r="D938">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>20250702</v>
+      </c>
+      <c r="B939" t="s">
+        <v>70</v>
+      </c>
+      <c r="C939" t="s">
+        <v>21</v>
+      </c>
+      <c r="D939">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>20250702</v>
+      </c>
+      <c r="B940" t="s">
+        <v>70</v>
+      </c>
+      <c r="C940" t="s">
+        <v>22</v>
+      </c>
+      <c r="D940">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>20250702</v>
+      </c>
+      <c r="B941" t="s">
+        <v>70</v>
+      </c>
+      <c r="C941" t="s">
+        <v>23</v>
+      </c>
+      <c r="D941">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>20250702</v>
+      </c>
+      <c r="B942" t="s">
+        <v>71</v>
+      </c>
+      <c r="C942" t="s">
+        <v>4</v>
+      </c>
+      <c r="D942">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>20250702</v>
+      </c>
+      <c r="B943" t="s">
+        <v>71</v>
+      </c>
+      <c r="C943" t="s">
+        <v>5</v>
+      </c>
+      <c r="D943">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>20250702</v>
+      </c>
+      <c r="B944" t="s">
+        <v>71</v>
+      </c>
+      <c r="C944" t="s">
+        <v>6</v>
+      </c>
+      <c r="D944">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>20250702</v>
+      </c>
+      <c r="B945" t="s">
+        <v>71</v>
+      </c>
+      <c r="C945" t="s">
+        <v>7</v>
+      </c>
+      <c r="D945">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>20250702</v>
+      </c>
+      <c r="B946" t="s">
+        <v>71</v>
+      </c>
+      <c r="C946" t="s">
+        <v>8</v>
+      </c>
+      <c r="D946">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>20250702</v>
+      </c>
+      <c r="B947" t="s">
+        <v>71</v>
+      </c>
+      <c r="C947" t="s">
+        <v>9</v>
+      </c>
+      <c r="D947">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>20250702</v>
+      </c>
+      <c r="B948" t="s">
+        <v>71</v>
+      </c>
+      <c r="C948" t="s">
+        <v>10</v>
+      </c>
+      <c r="D948">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>20250702</v>
+      </c>
+      <c r="B949" t="s">
+        <v>71</v>
+      </c>
+      <c r="C949" t="s">
+        <v>11</v>
+      </c>
+      <c r="D949">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>20250702</v>
+      </c>
+      <c r="B950" t="s">
+        <v>71</v>
+      </c>
+      <c r="C950" t="s">
+        <v>12</v>
+      </c>
+      <c r="D950">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>20250702</v>
+      </c>
+      <c r="B951" t="s">
+        <v>71</v>
+      </c>
+      <c r="C951" t="s">
+        <v>13</v>
+      </c>
+      <c r="D951">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>20250702</v>
+      </c>
+      <c r="B952" t="s">
+        <v>71</v>
+      </c>
+      <c r="C952" t="s">
+        <v>14</v>
+      </c>
+      <c r="D952">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>20250702</v>
+      </c>
+      <c r="B953" t="s">
+        <v>71</v>
+      </c>
+      <c r="C953" t="s">
+        <v>15</v>
+      </c>
+      <c r="D953">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>20250702</v>
+      </c>
+      <c r="B954" t="s">
+        <v>71</v>
+      </c>
+      <c r="C954" t="s">
+        <v>16</v>
+      </c>
+      <c r="D954">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>20250702</v>
+      </c>
+      <c r="B955" t="s">
+        <v>71</v>
+      </c>
+      <c r="C955" t="s">
+        <v>17</v>
+      </c>
+      <c r="D955">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>20250702</v>
+      </c>
+      <c r="B956" t="s">
+        <v>71</v>
+      </c>
+      <c r="C956" t="s">
+        <v>18</v>
+      </c>
+      <c r="D956">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>20250702</v>
+      </c>
+      <c r="B957" t="s">
+        <v>71</v>
+      </c>
+      <c r="C957" t="s">
+        <v>19</v>
+      </c>
+      <c r="D957">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>20250702</v>
+      </c>
+      <c r="B958" t="s">
+        <v>71</v>
+      </c>
+      <c r="C958" t="s">
+        <v>20</v>
+      </c>
+      <c r="D958">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>20250702</v>
+      </c>
+      <c r="B959" t="s">
+        <v>71</v>
+      </c>
+      <c r="C959" t="s">
+        <v>21</v>
+      </c>
+      <c r="D959">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>20250702</v>
+      </c>
+      <c r="B960" t="s">
+        <v>71</v>
+      </c>
+      <c r="C960" t="s">
+        <v>22</v>
+      </c>
+      <c r="D960">
+        <v>16.87</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>20250702</v>
+      </c>
+      <c r="B961" t="s">
+        <v>71</v>
+      </c>
+      <c r="C961" t="s">
+        <v>23</v>
+      </c>
+      <c r="D961">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>20250702</v>
+      </c>
+      <c r="B962" t="s">
+        <v>72</v>
+      </c>
+      <c r="C962" t="s">
+        <v>4</v>
+      </c>
+      <c r="D962">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>20250702</v>
+      </c>
+      <c r="B963" t="s">
+        <v>72</v>
+      </c>
+      <c r="C963" t="s">
+        <v>5</v>
+      </c>
+      <c r="D963">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>20250702</v>
+      </c>
+      <c r="B964" t="s">
+        <v>72</v>
+      </c>
+      <c r="C964" t="s">
+        <v>6</v>
+      </c>
+      <c r="D964">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>20250702</v>
+      </c>
+      <c r="B965" t="s">
+        <v>72</v>
+      </c>
+      <c r="C965" t="s">
+        <v>7</v>
+      </c>
+      <c r="D965">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>20250702</v>
+      </c>
+      <c r="B966" t="s">
+        <v>72</v>
+      </c>
+      <c r="C966" t="s">
+        <v>8</v>
+      </c>
+      <c r="D966">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <v>20250702</v>
+      </c>
+      <c r="B967" t="s">
+        <v>72</v>
+      </c>
+      <c r="C967" t="s">
+        <v>9</v>
+      </c>
+      <c r="D967">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <v>20250702</v>
+      </c>
+      <c r="B968" t="s">
+        <v>72</v>
+      </c>
+      <c r="C968" t="s">
+        <v>10</v>
+      </c>
+      <c r="D968">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <v>20250702</v>
+      </c>
+      <c r="B969" t="s">
+        <v>72</v>
+      </c>
+      <c r="C969" t="s">
+        <v>11</v>
+      </c>
+      <c r="D969">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <v>20250702</v>
+      </c>
+      <c r="B970" t="s">
+        <v>72</v>
+      </c>
+      <c r="C970" t="s">
+        <v>12</v>
+      </c>
+      <c r="D970">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>20250702</v>
+      </c>
+      <c r="B971" t="s">
+        <v>72</v>
+      </c>
+      <c r="C971" t="s">
+        <v>13</v>
+      </c>
+      <c r="D971">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>20250702</v>
+      </c>
+      <c r="B972" t="s">
+        <v>72</v>
+      </c>
+      <c r="C972" t="s">
+        <v>14</v>
+      </c>
+      <c r="D972">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>20250702</v>
+      </c>
+      <c r="B973" t="s">
+        <v>72</v>
+      </c>
+      <c r="C973" t="s">
+        <v>15</v>
+      </c>
+      <c r="D973">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>20250702</v>
+      </c>
+      <c r="B974" t="s">
+        <v>72</v>
+      </c>
+      <c r="C974" t="s">
+        <v>16</v>
+      </c>
+      <c r="D974">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>20250702</v>
+      </c>
+      <c r="B975" t="s">
+        <v>72</v>
+      </c>
+      <c r="C975" t="s">
+        <v>17</v>
+      </c>
+      <c r="D975">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>20250702</v>
+      </c>
+      <c r="B976" t="s">
+        <v>72</v>
+      </c>
+      <c r="C976" t="s">
+        <v>18</v>
+      </c>
+      <c r="D976">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>20250702</v>
+      </c>
+      <c r="B977" t="s">
+        <v>72</v>
+      </c>
+      <c r="C977" t="s">
+        <v>19</v>
+      </c>
+      <c r="D977">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>20250702</v>
+      </c>
+      <c r="B978" t="s">
+        <v>72</v>
+      </c>
+      <c r="C978" t="s">
+        <v>20</v>
+      </c>
+      <c r="D978">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>20250702</v>
+      </c>
+      <c r="B979" t="s">
+        <v>72</v>
+      </c>
+      <c r="C979" t="s">
+        <v>21</v>
+      </c>
+      <c r="D979">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>20250702</v>
+      </c>
+      <c r="B980" t="s">
+        <v>72</v>
+      </c>
+      <c r="C980" t="s">
+        <v>22</v>
+      </c>
+      <c r="D980">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A981">
+        <v>20250702</v>
+      </c>
+      <c r="B981" t="s">
+        <v>72</v>
+      </c>
+      <c r="C981" t="s">
+        <v>23</v>
+      </c>
+      <c r="D981">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A982">
+        <v>20250702</v>
+      </c>
+      <c r="B982" t="s">
+        <v>73</v>
+      </c>
+      <c r="C982" t="s">
+        <v>4</v>
+      </c>
+      <c r="D982">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A983">
+        <v>20250702</v>
+      </c>
+      <c r="B983" t="s">
+        <v>73</v>
+      </c>
+      <c r="C983" t="s">
+        <v>5</v>
+      </c>
+      <c r="D983">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A984">
+        <v>20250702</v>
+      </c>
+      <c r="B984" t="s">
+        <v>73</v>
+      </c>
+      <c r="C984" t="s">
+        <v>6</v>
+      </c>
+      <c r="D984">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A985">
+        <v>20250702</v>
+      </c>
+      <c r="B985" t="s">
+        <v>73</v>
+      </c>
+      <c r="C985" t="s">
+        <v>7</v>
+      </c>
+      <c r="D985">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A986">
+        <v>20250702</v>
+      </c>
+      <c r="B986" t="s">
+        <v>73</v>
+      </c>
+      <c r="C986" t="s">
+        <v>8</v>
+      </c>
+      <c r="D986">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A987">
+        <v>20250702</v>
+      </c>
+      <c r="B987" t="s">
+        <v>73</v>
+      </c>
+      <c r="C987" t="s">
+        <v>9</v>
+      </c>
+      <c r="D987">
+        <v>14.03</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A988">
+        <v>20250702</v>
+      </c>
+      <c r="B988" t="s">
+        <v>73</v>
+      </c>
+      <c r="C988" t="s">
+        <v>10</v>
+      </c>
+      <c r="D988">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A989">
+        <v>20250702</v>
+      </c>
+      <c r="B989" t="s">
+        <v>73</v>
+      </c>
+      <c r="C989" t="s">
+        <v>11</v>
+      </c>
+      <c r="D989">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A990">
+        <v>20250702</v>
+      </c>
+      <c r="B990" t="s">
+        <v>73</v>
+      </c>
+      <c r="C990" t="s">
+        <v>12</v>
+      </c>
+      <c r="D990">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>20250702</v>
+      </c>
+      <c r="B991" t="s">
+        <v>73</v>
+      </c>
+      <c r="C991" t="s">
+        <v>13</v>
+      </c>
+      <c r="D991">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>20250702</v>
+      </c>
+      <c r="B992" t="s">
+        <v>73</v>
+      </c>
+      <c r="C992" t="s">
+        <v>14</v>
+      </c>
+      <c r="D992">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>20250702</v>
+      </c>
+      <c r="B993" t="s">
+        <v>73</v>
+      </c>
+      <c r="C993" t="s">
+        <v>15</v>
+      </c>
+      <c r="D993">
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>20250702</v>
+      </c>
+      <c r="B994" t="s">
+        <v>73</v>
+      </c>
+      <c r="C994" t="s">
+        <v>16</v>
+      </c>
+      <c r="D994">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>20250702</v>
+      </c>
+      <c r="B995" t="s">
+        <v>73</v>
+      </c>
+      <c r="C995" t="s">
+        <v>17</v>
+      </c>
+      <c r="D995">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>20250702</v>
+      </c>
+      <c r="B996" t="s">
+        <v>73</v>
+      </c>
+      <c r="C996" t="s">
+        <v>18</v>
+      </c>
+      <c r="D996">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>20250702</v>
+      </c>
+      <c r="B997" t="s">
+        <v>73</v>
+      </c>
+      <c r="C997" t="s">
+        <v>19</v>
+      </c>
+      <c r="D997">
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>20250702</v>
+      </c>
+      <c r="B998" t="s">
+        <v>73</v>
+      </c>
+      <c r="C998" t="s">
+        <v>20</v>
+      </c>
+      <c r="D998">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>20250702</v>
+      </c>
+      <c r="B999" t="s">
+        <v>73</v>
+      </c>
+      <c r="C999" t="s">
+        <v>21</v>
+      </c>
+      <c r="D999">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>20250702</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1000">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1001">
+        <v>20250702</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1001">
+        <v>14.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/size/trial_size.xlsx
+++ b/data/size/trial_size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB05144F-A5CC-DC4E-B413-9404678F702B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF668FA9-3B5A-DA40-831C-2EDDF84A056A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="11960" windowHeight="17120" xr2:uid="{DD34C9EB-E2ED-8349-AB5F-FDE14F54E3E1}"/>
   </bookViews>
@@ -254,10 +254,10 @@
     <t>plate48</t>
   </si>
   <si>
-    <t>plateA</t>
+    <t>plate71</t>
   </si>
   <si>
-    <t>plateB</t>
+    <t>plate72</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAB0EB0-0DA4-F441-80F7-FBB69504C7E9}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E484" sqref="E484"/>
+    <sheetView tabSelected="1" topLeftCell="A980" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C999" sqref="C999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/size/trial_size.xlsx
+++ b/data/size/trial_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF668FA9-3B5A-DA40-831C-2EDDF84A056A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5FED6C-2B01-7546-831C-0BAC92676BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="760" windowWidth="11960" windowHeight="17120" xr2:uid="{DD34C9EB-E2ED-8349-AB5F-FDE14F54E3E1}"/>
+    <workbookView xWindow="740" yWindow="760" windowWidth="12080" windowHeight="14460" xr2:uid="{DD34C9EB-E2ED-8349-AB5F-FDE14F54E3E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="96">
   <si>
     <t>date</t>
   </si>
@@ -258,6 +258,72 @@
   </si>
   <si>
     <t>plate72</t>
+  </si>
+  <si>
+    <t>plate49</t>
+  </si>
+  <si>
+    <t>plate50</t>
+  </si>
+  <si>
+    <t>plate51</t>
+  </si>
+  <si>
+    <t>plate52</t>
+  </si>
+  <si>
+    <t>plate53</t>
+  </si>
+  <si>
+    <t>plate54</t>
+  </si>
+  <si>
+    <t>plate55</t>
+  </si>
+  <si>
+    <t>plate56</t>
+  </si>
+  <si>
+    <t>plate57</t>
+  </si>
+  <si>
+    <t>plate58</t>
+  </si>
+  <si>
+    <t>plate59</t>
+  </si>
+  <si>
+    <t>plate60</t>
+  </si>
+  <si>
+    <t>plate61</t>
+  </si>
+  <si>
+    <t>plate62</t>
+  </si>
+  <si>
+    <t>plate63</t>
+  </si>
+  <si>
+    <t>plate64</t>
+  </si>
+  <si>
+    <t>plate65</t>
+  </si>
+  <si>
+    <t>plate66</t>
+  </si>
+  <si>
+    <t>plate67</t>
+  </si>
+  <si>
+    <t>plate68</t>
+  </si>
+  <si>
+    <t>plate69</t>
+  </si>
+  <si>
+    <t>plate70</t>
   </si>
 </sst>
 </file>
@@ -629,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAB0EB0-0DA4-F441-80F7-FBB69504C7E9}">
-  <dimension ref="A1:D1001"/>
+  <dimension ref="A1:D1441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A980" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C999" sqref="C999"/>
+    <sheetView tabSelected="1" topLeftCell="A987" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1006" sqref="G1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14651,6 +14717,6166 @@
         <v>14.19</v>
       </c>
     </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1002">
+        <v>20250703</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1002">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <v>20250703</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1003">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>20250703</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1004">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>20250703</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1005">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>20250703</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1006">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>20250703</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1007">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>20250703</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1008">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>20250703</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1009">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>20250703</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1010">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>20250703</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1011">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>20250703</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1012">
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>20250703</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1013">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>20250703</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1014">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>20250703</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1015">
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>20250703</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1016">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>20250703</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1017">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>20250703</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1018">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>20250703</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1019">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>20250703</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1020">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>20250703</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1021">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>20250703</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1022">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>20250703</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1023">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>20250703</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1024">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>20250703</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1025">
+        <v>18.239999999999998</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>20250703</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1026">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>20250703</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1027">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>20250703</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1028">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>20250703</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1029">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>20250703</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1030">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>20250703</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1031">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>20250703</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1032">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>20250703</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1033">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>20250703</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1034">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>20250703</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1035">
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>20250703</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1036">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>20250703</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1037">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>20250703</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1038">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>20250703</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1039">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>20250703</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1040">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>20250703</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1041">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>20250703</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1042">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>20250703</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1043">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>20250703</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1044">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>20250703</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1045">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <v>20250703</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1046">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <v>20250703</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1047">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <v>20250703</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1048">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <v>20250703</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1049">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <v>20250703</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1050">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <v>20250703</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1051">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1052">
+        <v>20250703</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1052">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <v>20250703</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1053">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <v>20250703</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1054">
+        <v>15.61</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <v>20250703</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1055">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <v>20250703</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1056">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <v>20250703</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1057">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <v>20250703</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1058">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <v>20250703</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1059">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <v>20250703</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1060">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <v>20250703</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1061">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <v>20250703</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1062">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1063">
+        <v>20250703</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1063">
+        <v>14.47</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <v>20250703</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1064">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <v>20250703</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1065">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <v>20250703</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1066">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <v>20250703</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1067">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <v>20250703</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1068">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <v>20250703</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1069">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <v>20250703</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1070">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <v>20250703</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1071">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <v>20250703</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1072">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <v>20250703</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1073">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <v>20250703</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1074">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <v>20250703</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1075">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <v>20250703</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1076">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <v>20250703</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1077">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <v>20250703</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1078">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <v>20250703</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1079">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <v>20250703</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1080">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>20250703</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1081">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <v>20250703</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1082">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <v>20250703</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1083">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <v>20250703</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1084">
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <v>20250703</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1085">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <v>20250703</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1086">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <v>20250703</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1087">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <v>20250703</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1088">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <v>20250703</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1089">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1090">
+        <v>20250703</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1090">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1091">
+        <v>20250703</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1091">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1092">
+        <v>20250703</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1092">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1093">
+        <v>20250703</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1093">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1094">
+        <v>20250703</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1094">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1095">
+        <v>20250703</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1095">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1096">
+        <v>20250703</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1096">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1097">
+        <v>20250703</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1097">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1098">
+        <v>20250703</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1098">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1099">
+        <v>20250703</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1099">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1100">
+        <v>20250703</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1100">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1101">
+        <v>20250703</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1101">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1102">
+        <v>20250703</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1102">
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1103">
+        <v>20250703</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1103">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1104">
+        <v>20250703</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1104">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1105">
+        <v>20250703</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1105">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1106">
+        <v>20250703</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1106">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <v>20250703</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1107">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <v>20250703</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1108">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <v>20250703</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1109">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <v>20250703</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1110">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <v>20250703</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1111">
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <v>20250703</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1112">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <v>20250703</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1113">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <v>20250703</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1114">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <v>20250703</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1115">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <v>20250703</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1116">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <v>20250703</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1117">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1118">
+        <v>20250703</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1118">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1119">
+        <v>20250703</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1119">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1120">
+        <v>20250703</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1120">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1121">
+        <v>20250703</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1121">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1122">
+        <v>20250703</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1122">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1123">
+        <v>20250703</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1123">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1124">
+        <v>20250703</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1124">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1125">
+        <v>20250703</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1125">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1126">
+        <v>20250703</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1126">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1127">
+        <v>20250703</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1127">
+        <v>19.170000000000002</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1128">
+        <v>20250703</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1128">
+        <v>16.87</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1129">
+        <v>20250703</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1129">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1130">
+        <v>20250703</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1130">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1131">
+        <v>20250703</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1131">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1132">
+        <v>20250703</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1132">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1133">
+        <v>20250703</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1133">
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1134">
+        <v>20250703</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1134">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1135">
+        <v>20250703</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1135">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1136">
+        <v>20250703</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1136">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1137">
+        <v>20250703</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1137">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1138">
+        <v>20250703</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1138">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1139">
+        <v>20250703</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1139">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1140">
+        <v>20250703</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1141">
+        <v>20250703</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1141">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1142">
+        <v>20250703</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1142">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1143">
+        <v>20250703</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1143">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1144">
+        <v>20250703</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1144">
+        <v>15.14</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1145">
+        <v>20250703</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1145">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1146">
+        <v>20250703</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1146">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1147">
+        <v>20250703</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1147">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1148">
+        <v>20250703</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1148">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1149">
+        <v>20250703</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1149">
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1150">
+        <v>20250703</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1150">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1151">
+        <v>20250703</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1151">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1152">
+        <v>20250703</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1152">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1153">
+        <v>20250703</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1153">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1154">
+        <v>20250703</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1154">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1155">
+        <v>20250703</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1155">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1156">
+        <v>20250703</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1156">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1157">
+        <v>20250703</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1157">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1158">
+        <v>20250703</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1158">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1159">
+        <v>20250703</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1159">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1160">
+        <v>20250703</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1160">
+        <v>16.37</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1161">
+        <v>20250703</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1161">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1162">
+        <v>20250703</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1162">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1163">
+        <v>20250703</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1163">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1164">
+        <v>20250703</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1164">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1165">
+        <v>20250703</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1165">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1166">
+        <v>20250703</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1166">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1167">
+        <v>20250703</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1167">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1168">
+        <v>20250703</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1168">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1169">
+        <v>20250703</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1169">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1170">
+        <v>20250703</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1170">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1171">
+        <v>20250703</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1171">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1172">
+        <v>20250703</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1172">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1173">
+        <v>20250703</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1173">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1174">
+        <v>20250703</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1174">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1175">
+        <v>20250703</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1175">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1176">
+        <v>20250703</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1176">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1177">
+        <v>20250703</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1177">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1178">
+        <v>20250703</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1178">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1179">
+        <v>20250703</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1179">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1180">
+        <v>20250703</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1180">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1181">
+        <v>20250703</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1181">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1182">
+        <v>20250703</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1182">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1183">
+        <v>20250703</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1183">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1184">
+        <v>20250703</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1184">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1185">
+        <v>20250703</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1185">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1186">
+        <v>20250703</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1186">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1187">
+        <v>20250703</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1187">
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1188">
+        <v>20250703</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1188">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1189">
+        <v>20250703</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1189">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1190">
+        <v>20250703</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1190">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1191">
+        <v>20250703</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1191">
+        <v>16.170000000000002</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1192">
+        <v>20250703</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1192">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1193">
+        <v>20250703</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1193">
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1194">
+        <v>20250703</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1194">
+        <v>16.510000000000002</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1195">
+        <v>20250703</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1195">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1196">
+        <v>20250703</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1196">
+        <v>18.739999999999998</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1197">
+        <v>20250703</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1197">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1198">
+        <v>20250703</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1198">
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1199">
+        <v>20250703</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1199">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1200">
+        <v>20250703</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1200">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1201">
+        <v>20250703</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1201">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1202">
+        <v>20250703</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1202">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1203">
+        <v>20250703</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1203">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1204">
+        <v>20250703</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1204">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1205">
+        <v>20250703</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1205">
+        <v>19.010000000000002</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1206">
+        <v>20250703</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1206">
+        <v>17.45</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1207">
+        <v>20250703</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1207">
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1208">
+        <v>20250703</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1208">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1209">
+        <v>20250703</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1209">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1210">
+        <v>20250703</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1210">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1211">
+        <v>20250703</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1211">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1212">
+        <v>20250703</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1212">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1213">
+        <v>20250703</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1213">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1214">
+        <v>20250703</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1214">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1215">
+        <v>20250703</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1215">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1216">
+        <v>20250703</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1216">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1217">
+        <v>20250703</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1217">
+        <v>18.23</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1218">
+        <v>20250703</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1218">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1219">
+        <v>20250703</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1219">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1220">
+        <v>20250703</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1220">
+        <v>14.68</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1221">
+        <v>20250703</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1221">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1222">
+        <v>20250703</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1222">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1223">
+        <v>20250703</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1223">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1224">
+        <v>20250703</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1224">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1225">
+        <v>20250703</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1225">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1226">
+        <v>20250703</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1226">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1227">
+        <v>20250703</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1227">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1228">
+        <v>20250703</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1228">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1229">
+        <v>20250703</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1229">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1230">
+        <v>20250703</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1230">
+        <v>16.84</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1231">
+        <v>20250703</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1231">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1232">
+        <v>20250703</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1232">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1233">
+        <v>20250703</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1233">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1234">
+        <v>20250703</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1234">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1235">
+        <v>20250703</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1235">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1236">
+        <v>20250703</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1236">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1237">
+        <v>20250703</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1237">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1238">
+        <v>20250703</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1238">
+        <v>17.010000000000002</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1239">
+        <v>20250703</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1239">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1240">
+        <v>20250703</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1240">
+        <v>18.940000000000001</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1241">
+        <v>20250703</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1241">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1242">
+        <v>20250703</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1242">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1243">
+        <v>20250703</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1243">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1244">
+        <v>20250703</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1244">
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1245">
+        <v>20250703</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1245">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1246">
+        <v>20250703</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1246">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1247">
+        <v>20250703</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1247">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1248">
+        <v>20250703</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1248">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1249">
+        <v>20250703</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1249">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1250">
+        <v>20250703</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1250">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1251">
+        <v>20250703</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1251">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1252">
+        <v>20250703</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1252">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1253">
+        <v>20250703</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1253">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1254">
+        <v>20250703</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1254">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1255">
+        <v>20250703</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1255">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1256">
+        <v>20250703</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1256">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1257">
+        <v>20250703</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1257">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1258">
+        <v>20250703</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1258">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1259">
+        <v>20250703</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1259">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1260">
+        <v>20250703</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1260">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1261">
+        <v>20250703</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1261">
+        <v>14.47</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1262">
+        <v>20250703</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1262">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1263">
+        <v>20250703</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1263">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1264">
+        <v>20250703</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1264">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1265">
+        <v>20250703</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1265">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1266">
+        <v>20250703</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1266">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1267">
+        <v>20250703</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1267">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1268">
+        <v>20250703</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1268">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1269">
+        <v>20250703</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1269">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1270">
+        <v>20250703</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1270">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1271">
+        <v>20250703</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1271">
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1272">
+        <v>20250703</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1272">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1273">
+        <v>20250703</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1273">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1274">
+        <v>20250703</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1274">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1275">
+        <v>20250703</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1275">
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1276">
+        <v>20250703</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1276">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1277">
+        <v>20250703</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1277">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1278">
+        <v>20250703</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1278">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1279">
+        <v>20250703</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1279">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1280">
+        <v>20250703</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1280">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1281">
+        <v>20250703</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1281">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1282">
+        <v>20250703</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1282">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1283">
+        <v>20250703</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1283">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1284">
+        <v>20250703</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1284">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1285">
+        <v>20250703</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1285">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1286">
+        <v>20250703</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1286">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1287">
+        <v>20250703</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1287">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1288">
+        <v>20250703</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1288">
+        <v>17.21</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1289">
+        <v>20250703</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1289">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1290">
+        <v>20250703</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1290">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1291">
+        <v>20250703</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1291">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1292">
+        <v>20250703</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1292">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1293">
+        <v>20250703</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1293">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1294">
+        <v>20250703</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1294">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1295">
+        <v>20250703</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1295">
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1296">
+        <v>20250703</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1296">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1297">
+        <v>20250703</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1297">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1298">
+        <v>20250703</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1298">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1299">
+        <v>20250703</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1299">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1300">
+        <v>20250703</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1300">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1301">
+        <v>20250703</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1301">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1302">
+        <v>20250703</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1302">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1303">
+        <v>20250703</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1303">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1304">
+        <v>20250703</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1304">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1305">
+        <v>20250703</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1305">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1306">
+        <v>20250703</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1306">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1307">
+        <v>20250703</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1307">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1308">
+        <v>20250703</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1308">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1309">
+        <v>20250703</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1309">
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1310">
+        <v>20250703</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1310">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1311">
+        <v>20250703</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1311">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1312">
+        <v>20250703</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1312">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1313">
+        <v>20250703</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1313">
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1314">
+        <v>20250703</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1314">
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1315">
+        <v>20250703</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1315">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1316">
+        <v>20250703</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1316">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1317">
+        <v>20250703</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1317">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1318">
+        <v>20250703</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1318">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1319">
+        <v>20250703</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1319">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1320">
+        <v>20250703</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1320">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1321">
+        <v>20250703</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1321">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1322">
+        <v>20250703</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1322">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1323">
+        <v>20250703</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1323">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1324">
+        <v>20250703</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1324">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1325">
+        <v>20250703</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1325">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1326">
+        <v>20250703</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1326">
+        <v>13.57</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1327">
+        <v>20250703</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1327">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1328">
+        <v>20250703</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1328">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1329">
+        <v>20250703</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1329">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1330">
+        <v>20250703</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1330">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1331">
+        <v>20250703</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1331">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1332">
+        <v>20250703</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1332">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1333">
+        <v>20250703</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1333">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1334">
+        <v>20250703</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1334">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1335">
+        <v>20250703</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1335">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1336">
+        <v>20250703</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1336">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1337">
+        <v>20250703</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1337">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1338">
+        <v>20250703</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1338">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1339">
+        <v>20250703</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1339">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1340">
+        <v>20250703</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1340">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1341">
+        <v>20250703</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1341">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1342">
+        <v>20250703</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1342">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1343">
+        <v>20250703</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1343">
+        <v>16.079999999999998</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1344">
+        <v>20250703</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1344">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1345">
+        <v>20250703</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1345">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1346">
+        <v>20250703</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1346">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1347">
+        <v>20250703</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1347">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1348">
+        <v>20250703</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1348">
+        <v>14.47</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1349">
+        <v>20250703</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1349">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1350">
+        <v>20250703</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1350">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1351">
+        <v>20250703</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1351">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1352">
+        <v>20250703</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1352">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1353">
+        <v>20250703</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1353">
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1354">
+        <v>20250703</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1354">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1355">
+        <v>20250703</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1355">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1356">
+        <v>20250703</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1356">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1357">
+        <v>20250703</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1357">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1358">
+        <v>20250703</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1358">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1359">
+        <v>20250703</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1359">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1360">
+        <v>20250703</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1360">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1361">
+        <v>20250703</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1361">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1362">
+        <v>20250703</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1362">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1363">
+        <v>20250703</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1363">
+        <v>18.420000000000002</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1364">
+        <v>20250703</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1364">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1365">
+        <v>20250703</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1365">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1366">
+        <v>20250703</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1366">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1367">
+        <v>20250703</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1367">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1368">
+        <v>20250703</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1368">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1369">
+        <v>20250703</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1369">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1370">
+        <v>20250703</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1370">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1371">
+        <v>20250703</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1371">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1372">
+        <v>20250703</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1372">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1373">
+        <v>20250703</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1373">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1374">
+        <v>20250703</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1374">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1375">
+        <v>20250703</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1375">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1376">
+        <v>20250703</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1376">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1377">
+        <v>20250703</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1377">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1378">
+        <v>20250703</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1378">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1379">
+        <v>20250703</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1379">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1380">
+        <v>20250703</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1380">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1381">
+        <v>20250703</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1381">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1382">
+        <v>20250703</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1382">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1383">
+        <v>20250703</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1383">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1384">
+        <v>20250703</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1384">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1385">
+        <v>20250703</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1385">
+        <v>13.67</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1386">
+        <v>20250703</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1386">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1387">
+        <v>20250703</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1387">
+        <v>16.37</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1388">
+        <v>20250703</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1388">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1389">
+        <v>20250703</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1389">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1390">
+        <v>20250703</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1390">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1391">
+        <v>20250703</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1391">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1392">
+        <v>20250703</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1392">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1393">
+        <v>20250703</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1393">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1394">
+        <v>20250703</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1394">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1395">
+        <v>20250703</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1395">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1396">
+        <v>20250703</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1396">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1397">
+        <v>20250703</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1397">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1398">
+        <v>20250703</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1398">
+        <v>18.73</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1399">
+        <v>20250703</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1399">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1400">
+        <v>20250703</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1400">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1401">
+        <v>20250703</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1401">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1402">
+        <v>20250703</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1402">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1403">
+        <v>20250703</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1403">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1404">
+        <v>20250703</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1404">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1405">
+        <v>20250703</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1405">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1406">
+        <v>20250703</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1406">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1407">
+        <v>20250703</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1407">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1408">
+        <v>20250703</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1408">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1409">
+        <v>20250703</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1409">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1410">
+        <v>20250703</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1410">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1411">
+        <v>20250703</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1411">
+        <v>17.21</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1412">
+        <v>20250703</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1412">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1413">
+        <v>20250703</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1413">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1414">
+        <v>20250703</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1414">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1415">
+        <v>20250703</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1415">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1416">
+        <v>20250703</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1416">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1417">
+        <v>20250703</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1417">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1418">
+        <v>20250703</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1418">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1419">
+        <v>20250703</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1419">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1420">
+        <v>20250703</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1420">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1421">
+        <v>20250703</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1421">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1422">
+        <v>20250703</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1422">
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1423">
+        <v>20250703</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1423">
+        <v>19.47</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1424">
+        <v>20250703</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1424">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1425">
+        <v>20250703</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1425">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1426">
+        <v>20250703</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1426">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1427">
+        <v>20250703</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1427">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1428">
+        <v>20250703</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1428">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1429">
+        <v>20250703</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1429">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1430">
+        <v>20250703</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1430">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1431">
+        <v>20250703</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1431">
+        <v>17.010000000000002</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1432">
+        <v>20250703</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1432">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1433">
+        <v>20250703</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1433">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1434">
+        <v>20250703</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1434">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1435">
+        <v>20250703</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1435">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1436">
+        <v>20250703</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1436">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1437">
+        <v>20250703</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1437">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1438">
+        <v>20250703</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1438">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1439">
+        <v>20250703</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1439">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1440">
+        <v>20250703</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1440">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1441">
+        <v>20250703</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1441">
+        <v>13.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
